--- a/MTUCI/math-stas-prob/Бергман_Комаров_Черевко ДЗ.xlsx
+++ b/MTUCI/math-stas-prob/Бергман_Комаров_Черевко ДЗ.xlsx
@@ -8,24 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkBench\EduCourses\MTUCI\math-stas-prob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A420FB-C45B-4901-8EB8-5D9808009323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D5AAC9-C038-4BEE-AA1C-05EF598B57C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{860E577D-1796-4E3C-8407-155EF3E87354}"/>
   </bookViews>
   <sheets>
-    <sheet name="Задание-1" sheetId="1" r:id="rId1"/>
-    <sheet name="Задание-2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Задание-3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Задание-1'!$I$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Задание-1'!$A$1:$E$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Задание-1'!$A$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Задание-1'!$A$7:$A$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Задание-1'!$B$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Задание-1'!$B$7:$B$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Задание-1'!$I$8</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,28 +35,340 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Значения</t>
   </si>
   <si>
-    <t>Частота</t>
+    <t>От 0 до 4</t>
   </si>
   <si>
-    <t>Выборка из распределения Пуассона, λ = 8, объём = 50</t>
+    <r>
+      <t>Теор. частота f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
   </si>
   <si>
-    <t>Объём:</t>
+    <r>
+      <t>Частота f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
   </si>
   <si>
-    <t>λ = 8; объём = 50</t>
+    <r>
+      <t>(f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>Сумма:</t>
+  </si>
+  <si>
+    <r>
+      <t>χ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>критич. правостор.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Ур. значимости.:</t>
+  </si>
+  <si>
+    <t>Число степ. своб.:</t>
+  </si>
+  <si>
+    <t>Объём выборки:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">λ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>наблюдаемое</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>χ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>наблюдаемое</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Гипотеза H0:</t>
+  </si>
+  <si>
+    <t>Предыдущая выборка после объединения частот</t>
+  </si>
+  <si>
+    <t>Гипотеза H1:</t>
+  </si>
+  <si>
+    <t>Дискретная с.в. X извлечена из генеральной совокупности распределённой по закону Пуассона.</t>
+  </si>
+  <si>
+    <t>Дискретная с.в. X извлечена из генеральной совокупности не подчиняющейся закону Пуассона.</t>
+  </si>
+  <si>
+    <t>Результат:</t>
+  </si>
+  <si>
+    <r>
+      <t>Выборка из распределения Пуассона, λ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>заданное</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 8, объём выб. = 50</t>
+    </r>
+  </si>
+  <si>
+    <t>Интервалы</t>
+  </si>
+  <si>
+    <t>От 15 и более</t>
+  </si>
+  <si>
+    <t>От 13 до 14</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(X), при λ = 8,66</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,16 +392,93 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -148,19 +526,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -180,10 +545,61 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -196,66 +612,141 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -289,6 +780,43 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Выборка из распределения Пуассона, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>λ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="-25000"/>
+              <a:t>заданное</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t> = 8, объём выборки = 50</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -325,10 +853,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.2326981316684529E-2"/>
-          <c:y val="0.17162074000634417"/>
-          <c:w val="0.91163751572473561"/>
-          <c:h val="0.73378900405692282"/>
+          <c:x val="8.3628756464613527E-2"/>
+          <c:y val="0.16067187769412036"/>
+          <c:w val="0.89033574057680664"/>
+          <c:h val="0.66809558020575899"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -340,11 +868,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Задание-1'!$A$1:$E$1</c:f>
+              <c:f>'Задание-3'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Выборка из распределения Пуассона, λ = 8, объём = 50</c:v>
+                  <c:v>Выборка из распределения Пуассона, λзаданное = 8, объём выб. = 50</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -361,7 +889,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Задание-1'!$A$3:$A$21</c:f>
+              <c:f>'Задание-3'!$A$3:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -427,7 +955,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Задание-1'!$B$3:$B$21</c:f>
+              <c:f>'Задание-3'!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -493,7 +1021,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0648-4D62-A381-BA0FE2E7BB7C}"/>
+              <c16:uniqueId val="{00000000-B257-4FBC-A04E-F47478BB6721}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -530,6 +1058,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Принимаемые значения</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.71372557424404792"/>
+              <c:y val="0.90248376343468018"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -594,6 +1186,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" b="1"/>
+                  <a:t>Частоты</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.2748450822345441E-3"/>
+              <c:y val="0.14665383067992413"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -673,6 +1329,11 @@
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1229,26 +1890,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB4AC08-51E6-42A3-9480-189222532954}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A545B64C-F480-4ADB-BC98-A36613B5DEA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1562,419 +2225,722 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7748C910-3869-478F-B75A-17ADEFB724E4}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" customWidth="1"/>
     <col min="5" max="5" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <f>_xlfn.POISSON.DIST(A3,$B$23,FALSE)</f>
+        <v>1.7338430690350557E-4</v>
+      </c>
+      <c r="D3" s="41">
+        <f>$B$22*C3</f>
+        <v>8.6692153451752782E-3</v>
+      </c>
+      <c r="E3" s="38">
+        <f>SUM(D3:D7)</f>
+        <v>3.3788175793196444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="B3" s="12">
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C21" si="0">_xlfn.POISSON.DIST(A4,$B$23,FALSE)</f>
+        <v>1.501508097784358E-3</v>
+      </c>
+      <c r="D4" s="42">
+        <f t="shared" ref="D4:D21" si="1">$B$22*C4</f>
+        <v>7.5075404889217906E-2</v>
+      </c>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>6.5015300634062726E-3</v>
+      </c>
+      <c r="D5" s="42">
+        <f t="shared" si="1"/>
+        <v>0.32507650317031361</v>
+      </c>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>1.8767750116366111E-2</v>
+      </c>
+      <c r="D6" s="42">
+        <f t="shared" si="1"/>
+        <v>0.93838750581830555</v>
+      </c>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>4.0632179001932639E-2</v>
+      </c>
+      <c r="D7" s="43">
+        <f t="shared" si="1"/>
+        <v>2.0316089500966319</v>
+      </c>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>7.03749340313473E-2</v>
+      </c>
+      <c r="D8" s="44">
+        <f t="shared" si="1"/>
+        <v>3.5187467015673648</v>
+      </c>
+      <c r="E8" s="37">
+        <v>3.5187467015673648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10157448811857792</v>
+      </c>
+      <c r="D9" s="45">
+        <f t="shared" si="1"/>
+        <v>5.0787244059288961</v>
+      </c>
+      <c r="E9" s="37">
+        <v>5.0787244059288961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.12566215244384069</v>
+      </c>
+      <c r="D10" s="46">
+        <f t="shared" si="1"/>
+        <v>6.2831076221920341</v>
+      </c>
+      <c r="E10" s="37">
+        <v>6.2831076221920341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13602928002045755</v>
+      </c>
+      <c r="D11" s="46">
+        <f t="shared" si="1"/>
+        <v>6.801464001022878</v>
+      </c>
+      <c r="E11" s="37">
+        <v>6.801464001022878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13089039610857359</v>
+      </c>
+      <c r="D12" s="46">
+        <f t="shared" si="1"/>
+        <v>6.5445198054286795</v>
+      </c>
+      <c r="E12" s="37">
+        <v>6.5445198054286795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.11335108303002475</v>
+      </c>
+      <c r="D13" s="45">
+        <f t="shared" si="1"/>
+        <v>5.6675541515012373</v>
+      </c>
+      <c r="E13" s="37">
+        <v>5.6675541515012373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>8.9238216276364912E-2</v>
+      </c>
+      <c r="D14" s="45">
+        <f t="shared" si="1"/>
+        <v>4.4619108138182453</v>
+      </c>
+      <c r="E14" s="37">
+        <v>4.4619108138182453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>6.4400246079443335E-2</v>
+      </c>
+      <c r="D15" s="44">
+        <f t="shared" si="1"/>
+        <v>3.2200123039721666</v>
+      </c>
+      <c r="E15" s="37">
+        <v>3.2200123039721666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>4.290047161907537E-2</v>
+      </c>
+      <c r="D16" s="43">
+        <f t="shared" si="1"/>
+        <v>2.1450235809537683</v>
+      </c>
+      <c r="E16" s="38">
+        <f>SUM(D16:D17)</f>
+        <v>3.4718738817437398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6537006015799433E-2</v>
+      </c>
+      <c r="D17" s="43">
+        <f t="shared" si="1"/>
+        <v>1.3268503007899717</v>
+      </c>
+      <c r="E17" s="39"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8">
         <v>0</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5320698139788218E-2</v>
+      </c>
+      <c r="D18" s="42">
+        <f t="shared" si="1"/>
+        <v>0.7660349069894109</v>
+      </c>
+      <c r="E18" s="36">
+        <f>SUM(D18:D21)</f>
+        <v>1.493477472286032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>8.2923278681603773E-3</v>
+      </c>
+      <c r="D19" s="42">
+        <f t="shared" si="1"/>
+        <v>0.41461639340801887</v>
+      </c>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>4.2242093728393415E-3</v>
+      </c>
+      <c r="D20" s="42">
+        <f t="shared" si="1"/>
+        <v>0.21121046864196708</v>
+      </c>
+      <c r="E20" s="36"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14">
+        <f t="shared" si="0"/>
+        <v>2.0323140649327045E-3</v>
+      </c>
+      <c r="D21" s="47">
+        <f t="shared" si="1"/>
+        <v>0.10161570324663523</v>
+      </c>
+      <c r="E21" s="36"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="27">
+        <f>SUM(B3:B21)</f>
+        <v>50</v>
+      </c>
+      <c r="C22" s="18">
+        <f>SUM(C3:C21)</f>
+        <v>0.99840417477561827</v>
+      </c>
+      <c r="D22" s="18">
+        <f t="shared" ref="D22:E22" si="2">SUM(D3:D21)</f>
+        <v>49.920208738780914</v>
+      </c>
+      <c r="E22" s="18">
+        <f t="shared" si="2"/>
+        <v>49.920208738780914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="32">
+        <f>SUMPRODUCT(A3:A21,B3:B21)/B22</f>
+        <v>8.66</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
+      <c r="D27" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="12">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="C28" s="24">
+        <f>E3</f>
+        <v>3.3788175793196444</v>
+      </c>
+      <c r="D28" s="21">
+        <f>((B28-C28)^2)/C28</f>
+        <v>4.2471295070771672E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8">
+        <v>6</v>
+      </c>
+      <c r="C29" s="25">
+        <v>3.5187467015673648</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" ref="D29:D38" si="3">((B29-C29)^2)/C29</f>
+        <v>1.7496621533571806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>6</v>
+      </c>
+      <c r="B30" s="8">
+        <v>7</v>
+      </c>
+      <c r="C30" s="25">
+        <v>5.0787244059288961</v>
+      </c>
+      <c r="D30" s="17">
+        <f t="shared" si="3"/>
+        <v>0.72681634468372702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>7</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2</v>
+      </c>
+      <c r="C31" s="25">
+        <v>6.2831076221920341</v>
+      </c>
+      <c r="D31" s="17">
+        <f t="shared" si="3"/>
+        <v>2.9197352657918252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>8</v>
+      </c>
+      <c r="B32" s="8">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8">
+      <c r="C32" s="25">
+        <v>6.801464001022878</v>
+      </c>
+      <c r="D32" s="17">
+        <f t="shared" si="3"/>
+        <v>1.1538987117842296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>9</v>
+      </c>
+      <c r="B33" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="C33" s="25">
+        <v>6.5445198054286795</v>
+      </c>
+      <c r="D33" s="17">
+        <f t="shared" si="3"/>
+        <v>4.5305358883342167E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>10</v>
+      </c>
+      <c r="B34" s="8">
+        <v>12</v>
+      </c>
+      <c r="C34" s="25">
+        <v>5.6675541515012373</v>
+      </c>
+      <c r="D34" s="17">
+        <f t="shared" si="3"/>
+        <v>7.0753396178045245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>11</v>
+      </c>
+      <c r="B35" s="8">
+        <v>4</v>
+      </c>
+      <c r="C35" s="25">
+        <v>4.4619108138182453</v>
+      </c>
+      <c r="D35" s="17">
+        <f t="shared" si="3"/>
+        <v>4.7818436724792163E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>12</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="16">
+        <v>3.2200123039721666</v>
+      </c>
+      <c r="D36" s="17">
+        <f t="shared" si="3"/>
+        <v>0.46224358211531236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="16">
+        <f>E16</f>
+        <v>3.4718738817437398</v>
+      </c>
+      <c r="D37" s="17">
+        <f t="shared" si="3"/>
+        <v>0.62398946434981373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="9">
+        <v>2</v>
+      </c>
+      <c r="C38" s="30">
+        <f>E18</f>
+        <v>1.493477472286032</v>
+      </c>
+      <c r="D38" s="20">
+        <f t="shared" si="3"/>
+        <v>0.17179038575588901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="27">
+        <f>SUM(B28:B38)</f>
+        <v>50</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="29">
+        <f>SUM(D28:D38)</f>
+        <v>15.019070616321411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="28">
+        <f>B23</f>
+        <v>8.66</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="35" t="str">
+        <f>IF($D$39 &lt; $B$43, "Принимаем H0", "Отвергаем H0")</f>
+        <v>Принимаем H0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="28">
+        <f>COUNT(B28:B38) - 2</f>
+        <v>9</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3">
-        <f>SUM(B7:B21)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
-        <v>0</v>
-      </c>
-      <c r="B27" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="19">
-        <v>1</v>
-      </c>
-      <c r="B28" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="19">
-        <v>2</v>
-      </c>
-      <c r="B29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="19">
-        <v>3</v>
-      </c>
-      <c r="B30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
-        <v>4</v>
-      </c>
-      <c r="B31" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
-        <v>5</v>
-      </c>
-      <c r="B32" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
-        <v>6</v>
-      </c>
-      <c r="B33" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>7</v>
-      </c>
-      <c r="B34" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
-        <v>8</v>
-      </c>
-      <c r="B35" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
-        <v>9</v>
-      </c>
-      <c r="B36" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
-        <v>10</v>
-      </c>
-      <c r="B37" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
-        <v>11</v>
-      </c>
-      <c r="B38" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
-        <v>12</v>
-      </c>
-      <c r="B39" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
-        <v>13</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
-        <v>14</v>
-      </c>
-      <c r="B41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
-        <v>15</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
-        <v>16</v>
-      </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
-        <v>17</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="7">
-        <v>18</v>
-      </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="9">
-        <f>SUM(B31:B45)</f>
-        <v>50</v>
-      </c>
+      <c r="B43" s="31">
+        <f>_xlfn.CHISQ.INV(1-$B$42,$B$41)</f>
+        <v>16.918977604620448</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="19"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E3:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6CDAAD-94E5-4732-9CCD-43DB20FF3144}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8091B90-99AF-4B50-8BA7-EDF1BFF8F3D0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/MTUCI/math-stas-prob/Бергман_Комаров_Черевко ДЗ.xlsx
+++ b/MTUCI/math-stas-prob/Бергман_Комаров_Черевко ДЗ.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkBench\EduCourses\MTUCI\math-stas-prob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402ADF94-5D1B-49B1-A5BF-049F7D7D1C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CF7617-B458-4AAB-B7DA-0194F0A85103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{860E577D-1796-4E3C-8407-155EF3E87354}"/>
+    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{860E577D-1796-4E3C-8407-155EF3E87354}"/>
   </bookViews>
   <sheets>
-    <sheet name="Задание-3" sheetId="1" r:id="rId1"/>
-    <sheet name="Задание-4" sheetId="2" r:id="rId2"/>
+    <sheet name="Задание-2" sheetId="3" r:id="rId1"/>
+    <sheet name="Задание-3" sheetId="1" r:id="rId2"/>
+    <sheet name="Задание-4" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Значения</t>
   </si>
@@ -487,6 +488,83 @@
   <si>
     <t>Среднее значение по сеансам моделирования:</t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>∑</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
+  <si>
+    <t>y*</t>
+  </si>
+  <si>
+    <t>Вычисление элементов матрицы Грама</t>
+  </si>
+  <si>
+    <t>y - y*</t>
+  </si>
 </sst>
 </file>
 
@@ -618,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1083,11 +1161,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1189,6 +1380,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1216,20 +1439,39 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1237,6 +1479,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1251,77 +1508,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,6 +1571,656 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0"/>
+              <a:t>Аппроксимация</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" b="0" baseline="0"/>
+              <a:t> функцией</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t>y =</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1" baseline="0"/>
+              <a:t> -0,19*</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t>x</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="30000"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> + 0,76</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12859514435695538"/>
+          <c:y val="0.17151445086705203"/>
+          <c:w val="0.81873118985126858"/>
+          <c:h val="0.5774870511128305"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Экспериментальные значения</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Задание-2'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Задание-2'!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2210-48B0-9658-F47812E0DA9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Аппроксимирующая функций</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Задание-2'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Задание-2'!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.42749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5675000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.0875000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2210-48B0-9658-F47812E0DA9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="640282799"/>
+        <c:axId val="526349151"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="640282799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="526349151"/>
+        <c:crossesAt val="-12"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="526349151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Y, Y*</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640282799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1912,7 +2792,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2535,7 +3415,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3043,7 +4466,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3550,6 +4973,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949A5090-569A-4095-8690-0275287A08CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3589,7 +5053,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3926,6 +5390,410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186FB584-81E3-4CFD-A0E6-AE69B7CBB3A1}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="107" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="95">
+        <v>0</v>
+      </c>
+      <c r="B3" s="99">
+        <v>0</v>
+      </c>
+      <c r="C3" s="99">
+        <v>1.67</v>
+      </c>
+      <c r="D3" s="99">
+        <f>B3^2</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="99">
+        <f>B3^4</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="99">
+        <f>D3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="99">
+        <f>D3*(-0.19) + 0.76</f>
+        <v>0.76</v>
+      </c>
+      <c r="H3" s="100">
+        <f>(G3-C3)^2</f>
+        <v>0.82809999999999984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="96">
+        <f>A3+1</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="99">
+        <v>1.32</v>
+      </c>
+      <c r="D4" s="99">
+        <f t="shared" ref="D4:D12" si="0">B4^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="99">
+        <f t="shared" ref="E4:E12" si="1">B4^4</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F4" s="99">
+        <f t="shared" ref="F4:F12" si="2">D4*C4</f>
+        <v>0.33</v>
+      </c>
+      <c r="G4" s="99">
+        <f t="shared" ref="G4:G12" si="3">D4*(-0.19) + 0.76</f>
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="H4" s="100">
+        <f t="shared" ref="H4:H12" si="4">(G4-C4)^2</f>
+        <v>0.36905625000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="96">
+        <f t="shared" ref="A5:A9" si="5">A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="99">
+        <v>1</v>
+      </c>
+      <c r="C5" s="99">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5" s="99">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="99">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="99">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G5" s="99">
+        <f t="shared" si="3"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="H5" s="100">
+        <f t="shared" si="4"/>
+        <v>0.28090000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="96">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="101">
+        <v>1.5</v>
+      </c>
+      <c r="C6" s="101">
+        <v>0.81</v>
+      </c>
+      <c r="D6" s="99">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="E6" s="99">
+        <f t="shared" si="1"/>
+        <v>5.0625</v>
+      </c>
+      <c r="F6" s="99">
+        <f t="shared" si="2"/>
+        <v>1.8225000000000002</v>
+      </c>
+      <c r="G6" s="99">
+        <f t="shared" si="3"/>
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="H6" s="100">
+        <f t="shared" si="4"/>
+        <v>0.22800625000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="96">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="101">
+        <v>2</v>
+      </c>
+      <c r="C7" s="101">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="99">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="99">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F7" s="99">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="100">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="96">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="101">
+        <v>2.5</v>
+      </c>
+      <c r="C8" s="101">
+        <v>0.18</v>
+      </c>
+      <c r="D8" s="99">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="E8" s="99">
+        <f t="shared" si="1"/>
+        <v>39.0625</v>
+      </c>
+      <c r="F8" s="99">
+        <f t="shared" si="2"/>
+        <v>1.125</v>
+      </c>
+      <c r="G8" s="99">
+        <f t="shared" si="3"/>
+        <v>-0.42749999999999999</v>
+      </c>
+      <c r="H8" s="100">
+        <f t="shared" si="4"/>
+        <v>0.36905624999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="96">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="101">
+        <v>3</v>
+      </c>
+      <c r="C9" s="101">
+        <v>-0.1</v>
+      </c>
+      <c r="D9" s="99">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E9" s="99">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F9" s="99">
+        <f t="shared" si="2"/>
+        <v>-0.9</v>
+      </c>
+      <c r="G9" s="99">
+        <f t="shared" si="3"/>
+        <v>-0.95</v>
+      </c>
+      <c r="H9" s="100">
+        <f t="shared" si="4"/>
+        <v>0.72249999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="96">
+        <f>A9+1</f>
+        <v>7</v>
+      </c>
+      <c r="B10" s="101">
+        <v>3.5</v>
+      </c>
+      <c r="C10" s="101">
+        <v>-0.45</v>
+      </c>
+      <c r="D10" s="99">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="E10" s="99">
+        <f t="shared" si="1"/>
+        <v>150.0625</v>
+      </c>
+      <c r="F10" s="99">
+        <f t="shared" si="2"/>
+        <v>-5.5125000000000002</v>
+      </c>
+      <c r="G10" s="99">
+        <f t="shared" si="3"/>
+        <v>-1.5675000000000001</v>
+      </c>
+      <c r="H10" s="100">
+        <f t="shared" si="4"/>
+        <v>1.2488062500000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="96">
+        <f>A10+1</f>
+        <v>8</v>
+      </c>
+      <c r="B11" s="101">
+        <v>4</v>
+      </c>
+      <c r="C11" s="101">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="D11" s="99">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E11" s="99">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="F11" s="99">
+        <f t="shared" si="2"/>
+        <v>-156.80000000000001</v>
+      </c>
+      <c r="G11" s="99">
+        <f t="shared" si="3"/>
+        <v>-2.2800000000000002</v>
+      </c>
+      <c r="H11" s="100">
+        <f t="shared" si="4"/>
+        <v>56.55040000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="96">
+        <f t="shared" ref="A12" si="6">A11+1</f>
+        <v>9</v>
+      </c>
+      <c r="B12" s="101">
+        <v>4.5</v>
+      </c>
+      <c r="C12" s="101">
+        <v>-1.2</v>
+      </c>
+      <c r="D12" s="99">
+        <f t="shared" si="0"/>
+        <v>20.25</v>
+      </c>
+      <c r="E12" s="99">
+        <f t="shared" si="1"/>
+        <v>410.0625</v>
+      </c>
+      <c r="F12" s="99">
+        <f t="shared" si="2"/>
+        <v>-24.3</v>
+      </c>
+      <c r="G12" s="99">
+        <f t="shared" si="3"/>
+        <v>-3.0875000000000004</v>
+      </c>
+      <c r="H12" s="100">
+        <f t="shared" si="4"/>
+        <v>3.5626562500000016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102">
+        <f t="shared" ref="C13:H13" si="7">SUM(C3:C12)</f>
+        <v>-5.9700000000000006</v>
+      </c>
+      <c r="D13" s="102">
+        <f t="shared" si="7"/>
+        <v>71.25</v>
+      </c>
+      <c r="E13" s="102">
+        <f t="shared" si="7"/>
+        <v>958.3125</v>
+      </c>
+      <c r="F13" s="102">
+        <f t="shared" si="7"/>
+        <v>-181.13500000000002</v>
+      </c>
+      <c r="G13" s="98"/>
+      <c r="H13" s="103">
+        <f t="shared" si="7"/>
+        <v>64.409481250000013</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7748C910-3869-478F-B75A-17ADEFB724E4}">
   <dimension ref="A1:E44"/>
   <sheetViews>
@@ -3943,13 +5811,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -3983,7 +5851,7 @@
         <f>$B$22*C3</f>
         <v>8.6692153451752782E-3</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="67">
         <f>SUM(D3:D7)</f>
         <v>3.3788175793196444</v>
       </c>
@@ -4003,7 +5871,7 @@
         <f t="shared" ref="D4:D21" si="1">$B$22*C4</f>
         <v>7.5075404889217906E-2</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
@@ -4020,7 +5888,7 @@
         <f t="shared" si="1"/>
         <v>0.32507650317031361</v>
       </c>
-      <c r="E5" s="53"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
@@ -4037,7 +5905,7 @@
         <f t="shared" si="1"/>
         <v>0.93838750581830555</v>
       </c>
-      <c r="E6" s="53"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -4054,7 +5922,7 @@
         <f t="shared" si="1"/>
         <v>2.0316089500966319</v>
       </c>
-      <c r="E7" s="52"/>
+      <c r="E7" s="68"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -4223,7 +6091,7 @@
         <f t="shared" si="1"/>
         <v>2.1450235809537683</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="67">
         <f>SUM(D16:D17)</f>
         <v>3.4718738817437398</v>
       </c>
@@ -4243,7 +6111,7 @@
         <f t="shared" si="1"/>
         <v>1.3268503007899717</v>
       </c>
-      <c r="E17" s="52"/>
+      <c r="E17" s="68"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -4260,7 +6128,7 @@
         <f t="shared" si="1"/>
         <v>0.7660349069894109</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="66">
         <f>SUM(D18:D21)</f>
         <v>1.493477472286032</v>
       </c>
@@ -4280,7 +6148,7 @@
         <f t="shared" si="1"/>
         <v>0.41461639340801887</v>
       </c>
-      <c r="E19" s="50"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -4297,7 +6165,7 @@
         <f t="shared" si="1"/>
         <v>0.21121046864196708</v>
       </c>
-      <c r="E20" s="50"/>
+      <c r="E20" s="66"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
@@ -4314,7 +6182,7 @@
         <f t="shared" si="1"/>
         <v>0.10161570324663523</v>
       </c>
-      <c r="E21" s="50"/>
+      <c r="E21" s="66"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
@@ -4353,31 +6221,31 @@
       <c r="A24" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -4647,11 +6515,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8500AE4B-0859-4400-A0F7-ED5BAB6C4DC9}">
   <dimension ref="A1:AF107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="R126" sqref="R126"/>
     </sheetView>
   </sheetViews>
@@ -4689,145 +6557,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="63" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="66"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="92"/>
     </row>
     <row r="2" spans="1:32" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="60" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="67" t="s">
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="60" t="s">
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="62"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="83"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="67"/>
-      <c r="B3" s="49">
-        <v>1</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49">
+      <c r="A3" s="86"/>
+      <c r="B3" s="65">
+        <v>1</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65">
         <v>2</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49">
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65">
         <v>3</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49">
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65">
         <v>4</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58">
+      <c r="L3" s="65"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87">
         <v>5</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="49">
+      <c r="O3" s="87"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="65">
         <v>6</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49">
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65">
         <v>7</v>
       </c>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49">
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65">
         <v>8</v>
       </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49">
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65">
         <v>9</v>
       </c>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58">
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87">
         <v>10</v>
       </c>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="68"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="88"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="67"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
@@ -4870,10 +6738,10 @@
       <c r="O4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="67"/>
+      <c r="Q4" s="86"/>
       <c r="R4" s="11" t="s">
         <v>24</v>
       </c>
@@ -4916,12 +6784,12 @@
       <c r="AE4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AF4" s="69" t="s">
+      <c r="AF4" s="48" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="70">
+      <c r="A5" s="49">
         <v>1</v>
       </c>
       <c r="B5" s="22">
@@ -4944,20 +6812,20 @@
         <f>IF(AND(F5 &lt;= 2*E5, F5 &gt;= E5^3), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="74">
+      <c r="H5" s="53">
         <v>0.83310350657673882</v>
       </c>
-      <c r="I5" s="73">
+      <c r="I5" s="52">
         <v>5.8092385631885735E-2</v>
       </c>
       <c r="J5" s="2">
         <f>IF(AND(I5 &lt;= 2*H5, I5 &gt;= H5^3), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="74">
+      <c r="K5" s="53">
         <v>0.66089799493392731</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5" s="52">
         <v>1.6857150059511095</v>
       </c>
       <c r="M5" s="2">
@@ -4974,7 +6842,7 @@
         <f>IF(AND(O5 &lt;= 2*N5, O5 &gt;= N5^3), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="70">
+      <c r="Q5" s="49">
         <v>1</v>
       </c>
       <c r="R5" s="22">
@@ -4990,7 +6858,7 @@
       <c r="U5" s="24">
         <v>0.25627978148747216</v>
       </c>
-      <c r="V5" s="75">
+      <c r="V5" s="54">
         <v>1.2107903317361979</v>
       </c>
       <c r="W5" s="2">
@@ -5000,7 +6868,7 @@
       <c r="X5" s="24">
         <v>1.368839600817896</v>
       </c>
-      <c r="Y5" s="75">
+      <c r="Y5" s="54">
         <v>2.540786584063234</v>
       </c>
       <c r="Z5" s="2">
@@ -5010,7 +6878,7 @@
       <c r="AA5" s="24">
         <v>1.3516622089297159</v>
       </c>
-      <c r="AB5" s="75">
+      <c r="AB5" s="54">
         <v>2.0382399731437113</v>
       </c>
       <c r="AC5" s="2">
@@ -5020,16 +6888,16 @@
       <c r="AD5" s="24">
         <v>0.98139877925962093</v>
       </c>
-      <c r="AE5" s="75">
+      <c r="AE5" s="54">
         <v>0.79180007934812457</v>
       </c>
-      <c r="AF5" s="71">
+      <c r="AF5" s="50">
         <f>IF(AND(AE5 &lt;= 2*AD5, AE5 &gt;= AD5^3), 1, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A6" s="72">
+      <c r="A6" s="51">
         <f>A5+1</f>
         <v>2</v>
       </c>
@@ -5053,7 +6921,7 @@
         <f t="shared" ref="G6:G69" si="1">IF(AND(F6 &lt;= 2*E6, F6 &gt;= E6^3), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="45">
         <v>1.3513600939970092</v>
       </c>
       <c r="I6" s="8">
@@ -5063,7 +6931,7 @@
         <f t="shared" ref="J6:J69" si="2">IF(AND(I6 &lt;= 2*H6, I6 &gt;= H6^3), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="45">
         <v>1.3982742271187474</v>
       </c>
       <c r="L6" s="8">
@@ -5083,7 +6951,7 @@
         <f t="shared" ref="P6:P69" si="4">IF(AND(O6 &lt;= 2*N6, O6 &gt;= N6^3), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="72">
+      <c r="Q6" s="51">
         <f>Q5+1</f>
         <v>2</v>
       </c>
@@ -5133,13 +7001,13 @@
       <c r="AE6" s="22">
         <v>1.1809241126743368</v>
       </c>
-      <c r="AF6" s="71">
+      <c r="AF6" s="50">
         <f t="shared" ref="AF6:AF69" si="9">IF(AND(AE6 &lt;= 2*AD6, AE6 &gt;= AD6^3), 1, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A7" s="72">
+      <c r="A7" s="51">
         <f t="shared" ref="A7:A70" si="10">A6+1</f>
         <v>3</v>
       </c>
@@ -5163,7 +7031,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="45">
         <v>0.32287454451124603</v>
       </c>
       <c r="I7" s="8">
@@ -5173,7 +7041,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="56">
+      <c r="K7" s="45">
         <v>1.0958571794793541</v>
       </c>
       <c r="L7" s="8">
@@ -5193,7 +7061,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="72">
+      <c r="Q7" s="51">
         <f t="shared" ref="Q7:Q70" si="11">Q6+1</f>
         <v>3</v>
       </c>
@@ -5243,13 +7111,13 @@
       <c r="AE7" s="22">
         <v>1.0416059694204536</v>
       </c>
-      <c r="AF7" s="71">
+      <c r="AF7" s="50">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A8" s="72">
+      <c r="A8" s="51">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
@@ -5273,7 +7141,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="45">
         <v>0.76275388653218168</v>
       </c>
       <c r="I8" s="8">
@@ -5283,7 +7151,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="45">
         <v>1.8817444380016479E-2</v>
       </c>
       <c r="L8" s="8">
@@ -5303,7 +7171,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="72">
+      <c r="Q8" s="51">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
@@ -5353,13 +7221,13 @@
       <c r="AE8" s="22">
         <v>1.8490297067171237</v>
       </c>
-      <c r="AF8" s="71">
+      <c r="AF8" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" s="72">
+      <c r="A9" s="51">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -5383,7 +7251,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="45">
         <v>1.3881317972350229</v>
       </c>
       <c r="I9" s="8">
@@ -5393,7 +7261,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="45">
         <v>8.964181646168401E-2</v>
       </c>
       <c r="L9" s="8">
@@ -5413,7 +7281,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="72">
+      <c r="Q9" s="51">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
@@ -5463,13 +7331,13 @@
       <c r="AE9" s="22">
         <v>0.56633602099673452</v>
       </c>
-      <c r="AF9" s="71">
+      <c r="AF9" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A10" s="72">
+      <c r="A10" s="51">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
@@ -5493,7 +7361,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="45">
         <v>1.0458355784783471</v>
       </c>
       <c r="I10" s="8">
@@ -5503,7 +7371,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="56">
+      <c r="K10" s="45">
         <v>0.63439819940794084</v>
       </c>
       <c r="L10" s="8">
@@ -5523,7 +7391,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="72">
+      <c r="Q10" s="51">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
@@ -5573,13 +7441,13 @@
       <c r="AE10" s="22">
         <v>1.1434618610187077</v>
       </c>
-      <c r="AF10" s="71">
+      <c r="AF10" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A11" s="72">
+      <c r="A11" s="51">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -5603,7 +7471,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="45">
         <v>0.11402680745872371</v>
       </c>
       <c r="I11" s="8">
@@ -5613,7 +7481,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="56">
+      <c r="K11" s="45">
         <v>0.97880922269356352</v>
       </c>
       <c r="L11" s="8">
@@ -5633,7 +7501,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="72">
+      <c r="Q11" s="51">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
@@ -5683,13 +7551,13 @@
       <c r="AE11" s="22">
         <v>1.7102294747764519</v>
       </c>
-      <c r="AF11" s="71">
+      <c r="AF11" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A12" s="72">
+      <c r="A12" s="51">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
@@ -5713,7 +7581,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="45">
         <v>0.15010796227912226</v>
       </c>
       <c r="I12" s="8">
@@ -5723,7 +7591,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="45">
         <v>0.35066911832026121</v>
       </c>
       <c r="L12" s="8">
@@ -5743,7 +7611,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="72">
+      <c r="Q12" s="51">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
@@ -5793,13 +7661,13 @@
       <c r="AE12" s="22">
         <v>0.10220116580706197</v>
       </c>
-      <c r="AF12" s="71">
+      <c r="AF12" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" s="72">
+      <c r="A13" s="51">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
@@ -5823,7 +7691,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H13" s="56">
+      <c r="H13" s="45">
         <v>0.99098013855403289</v>
       </c>
       <c r="I13" s="8">
@@ -5833,7 +7701,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="56">
+      <c r="K13" s="45">
         <v>1.0880021912289803</v>
       </c>
       <c r="L13" s="8">
@@ -5853,7 +7721,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="72">
+      <c r="Q13" s="51">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
@@ -5903,13 +7771,13 @@
       <c r="AE13" s="22">
         <v>2.0738032166508988</v>
       </c>
-      <c r="AF13" s="71">
+      <c r="AF13" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A14" s="72">
+      <c r="A14" s="51">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
@@ -5933,7 +7801,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H14" s="45">
         <v>1.3433756279183324</v>
       </c>
       <c r="I14" s="8">
@@ -5943,7 +7811,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="56">
+      <c r="K14" s="45">
         <v>1.4052228705710013</v>
       </c>
       <c r="L14" s="8">
@@ -5963,7 +7831,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="72">
+      <c r="Q14" s="51">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
@@ -6013,13 +7881,13 @@
       <c r="AE14" s="22">
         <v>2.5435487777336951</v>
       </c>
-      <c r="AF14" s="71">
+      <c r="AF14" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" s="72">
+      <c r="A15" s="51">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
@@ -6043,7 +7911,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="56">
+      <c r="H15" s="45">
         <v>0.65701366008484141</v>
       </c>
       <c r="I15" s="8">
@@ -6053,7 +7921,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="45">
         <v>0.55235241554002501</v>
       </c>
       <c r="L15" s="8">
@@ -6073,7 +7941,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="72">
+      <c r="Q15" s="51">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
@@ -6123,13 +7991,13 @@
       <c r="AE15" s="22">
         <v>1.2262413525803399</v>
       </c>
-      <c r="AF15" s="71">
+      <c r="AF15" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A16" s="72">
+      <c r="A16" s="51">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
@@ -6153,7 +8021,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="45">
         <v>0.7799744376964628</v>
       </c>
       <c r="I16" s="8">
@@ -6163,7 +8031,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="45">
         <v>0.26158837244788963</v>
       </c>
       <c r="L16" s="8">
@@ -6183,7 +8051,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="72">
+      <c r="Q16" s="51">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
@@ -6233,13 +8101,13 @@
       <c r="AE16" s="22">
         <v>2.3211058687093722</v>
       </c>
-      <c r="AF16" s="71">
+      <c r="AF16" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A17" s="72">
+      <c r="A17" s="51">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
@@ -6263,7 +8131,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H17" s="56">
+      <c r="H17" s="45">
         <v>0.91260289315469822</v>
       </c>
       <c r="I17" s="8">
@@ -6273,7 +8141,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="56">
+      <c r="K17" s="45">
         <v>1.0771260536515397</v>
       </c>
       <c r="L17" s="8">
@@ -6293,7 +8161,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="72">
+      <c r="Q17" s="51">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
@@ -6343,13 +8211,13 @@
       <c r="AE17" s="22">
         <v>2.6234797570726642</v>
       </c>
-      <c r="AF17" s="71">
+      <c r="AF17" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A18" s="72">
+      <c r="A18" s="51">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
@@ -6373,7 +8241,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H18" s="56">
+      <c r="H18" s="45">
         <v>8.1225757621997727E-2</v>
       </c>
       <c r="I18" s="8">
@@ -6383,7 +8251,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="56">
+      <c r="K18" s="45">
         <v>1.2804494033631397</v>
       </c>
       <c r="L18" s="8">
@@ -6403,7 +8271,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="72">
+      <c r="Q18" s="51">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
@@ -6453,13 +8321,13 @@
       <c r="AE18" s="22">
         <v>1.6663796502578814</v>
       </c>
-      <c r="AF18" s="71">
+      <c r="AF18" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A19" s="72">
+      <c r="A19" s="51">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
@@ -6483,7 +8351,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H19" s="45">
         <v>1.3696164677877132</v>
       </c>
       <c r="I19" s="8">
@@ -6493,7 +8361,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="56">
+      <c r="K19" s="45">
         <v>0.13085892513809624</v>
       </c>
       <c r="L19" s="8">
@@ -6513,7 +8381,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="72">
+      <c r="Q19" s="51">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
@@ -6563,13 +8431,13 @@
       <c r="AE19" s="22">
         <v>2.2556764061403238</v>
       </c>
-      <c r="AF19" s="71">
+      <c r="AF19" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A20" s="72">
+      <c r="A20" s="51">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
@@ -6593,7 +8461,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H20" s="56">
+      <c r="H20" s="45">
         <v>0.86128651387066246</v>
       </c>
       <c r="I20" s="8">
@@ -6603,7 +8471,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="45">
         <v>0.64583540757469404</v>
       </c>
       <c r="L20" s="8">
@@ -6623,7 +8491,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="72">
+      <c r="Q20" s="51">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
@@ -6673,13 +8541,13 @@
       <c r="AE20" s="22">
         <v>1.9014250679036835</v>
       </c>
-      <c r="AF20" s="71">
+      <c r="AF20" s="50">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A21" s="72">
+      <c r="A21" s="51">
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
@@ -6703,7 +8571,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="56">
+      <c r="H21" s="45">
         <v>0.87514064149906901</v>
       </c>
       <c r="I21" s="8">
@@ -6713,7 +8581,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="56">
+      <c r="K21" s="45">
         <v>1.0542084780419323</v>
       </c>
       <c r="L21" s="8">
@@ -6733,7 +8601,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="72">
+      <c r="Q21" s="51">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
@@ -6783,13 +8651,13 @@
       <c r="AE21" s="22">
         <v>2.2904627826776935</v>
       </c>
-      <c r="AF21" s="71">
+      <c r="AF21" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A22" s="72">
+      <c r="A22" s="51">
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
@@ -6813,7 +8681,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="45">
         <v>0.19555468001342816</v>
       </c>
       <c r="I22" s="8">
@@ -6823,7 +8691,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="56">
+      <c r="K22" s="45">
         <v>1.0783776726584673</v>
       </c>
       <c r="L22" s="8">
@@ -6843,7 +8711,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="72">
+      <c r="Q22" s="51">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
@@ -6893,13 +8761,13 @@
       <c r="AE22" s="22">
         <v>2.3421675954466381</v>
       </c>
-      <c r="AF22" s="71">
+      <c r="AF22" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A23" s="72">
+      <c r="A23" s="51">
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
@@ -6923,7 +8791,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="56">
+      <c r="H23" s="45">
         <v>0.57065194860683</v>
       </c>
       <c r="I23" s="8">
@@ -6933,7 +8801,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K23" s="56">
+      <c r="K23" s="45">
         <v>0.67971543931394385</v>
       </c>
       <c r="L23" s="8">
@@ -6953,7 +8821,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="72">
+      <c r="Q23" s="51">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
@@ -7003,13 +8871,13 @@
       <c r="AE23" s="22">
         <v>2.3523531846064638</v>
       </c>
-      <c r="AF23" s="71">
+      <c r="AF23" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A24" s="72">
+      <c r="A24" s="51">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
@@ -7033,7 +8901,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="45">
         <v>0.32011235084078493</v>
       </c>
       <c r="I24" s="8">
@@ -7043,7 +8911,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="56">
+      <c r="K24" s="45">
         <v>0.36750123599963375</v>
       </c>
       <c r="L24" s="8">
@@ -7063,7 +8931,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="72">
+      <c r="Q24" s="51">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
@@ -7113,13 +8981,13 @@
       <c r="AE24" s="22">
         <v>0.2608546647541734</v>
       </c>
-      <c r="AF24" s="71">
+      <c r="AF24" s="50">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A25" s="72">
+      <c r="A25" s="51">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
@@ -7143,7 +9011,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="56">
+      <c r="H25" s="45">
         <v>0.1896850184636982</v>
       </c>
       <c r="I25" s="8">
@@ -7153,7 +9021,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="56">
+      <c r="K25" s="45">
         <v>1.2676310983611558</v>
       </c>
       <c r="L25" s="8">
@@ -7173,7 +9041,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q25" s="72">
+      <c r="Q25" s="51">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
@@ -7223,13 +9091,13 @@
       <c r="AE25" s="22">
         <v>1.8561941465498824</v>
       </c>
-      <c r="AF25" s="71">
+      <c r="AF25" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A26" s="72">
+      <c r="A26" s="51">
         <f t="shared" si="10"/>
         <v>22</v>
       </c>
@@ -7253,7 +9121,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="45">
         <v>0.12149336222418897</v>
       </c>
       <c r="I26" s="8">
@@ -7263,7 +9131,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K26" s="56">
+      <c r="K26" s="45">
         <v>0.33888663594470042</v>
       </c>
       <c r="L26" s="8">
@@ -7283,7 +9151,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="72">
+      <c r="Q26" s="51">
         <f t="shared" si="11"/>
         <v>22</v>
       </c>
@@ -7333,13 +9201,13 @@
       <c r="AE26" s="22">
         <v>2.6813995056001465</v>
       </c>
-      <c r="AF26" s="71">
+      <c r="AF26" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A27" s="72">
+      <c r="A27" s="51">
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
@@ -7363,7 +9231,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="56">
+      <c r="H27" s="45">
         <v>0.41394061708426161</v>
       </c>
       <c r="I27" s="8">
@@ -7373,7 +9241,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="56">
+      <c r="K27" s="45">
         <v>0.6022445387127292</v>
       </c>
       <c r="L27" s="8">
@@ -7393,7 +9261,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="72">
+      <c r="Q27" s="51">
         <f t="shared" si="11"/>
         <v>23</v>
       </c>
@@ -7443,13 +9311,13 @@
       <c r="AE27" s="22">
         <v>1.5792842310861537</v>
       </c>
-      <c r="AF27" s="71">
+      <c r="AF27" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A28" s="72">
+      <c r="A28" s="51">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
@@ -7473,7 +9341,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="45">
         <v>1.0234359141819513</v>
       </c>
       <c r="I28" s="8">
@@ -7483,7 +9351,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="56">
+      <c r="K28" s="45">
         <v>1.1263276284066286</v>
       </c>
       <c r="L28" s="8">
@@ -7503,7 +9371,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="72">
+      <c r="Q28" s="51">
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
@@ -7553,13 +9421,13 @@
       <c r="AE28" s="22">
         <v>1.2994394848475599</v>
       </c>
-      <c r="AF28" s="71">
+      <c r="AF28" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A29" s="72">
+      <c r="A29" s="51">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
@@ -7583,7 +9451,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H29" s="56">
+      <c r="H29" s="45">
         <v>8.9728135013885921E-2</v>
       </c>
       <c r="I29" s="8">
@@ -7593,7 +9461,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K29" s="56">
+      <c r="K29" s="45">
         <v>0.93897321085238195</v>
       </c>
       <c r="L29" s="8">
@@ -7613,7 +9481,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="72">
+      <c r="Q29" s="51">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
@@ -7663,13 +9531,13 @@
       <c r="AE29" s="22">
         <v>1.3941309366130556</v>
       </c>
-      <c r="AF29" s="71">
+      <c r="AF29" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A30" s="72">
+      <c r="A30" s="51">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
@@ -7693,7 +9561,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="56">
+      <c r="H30" s="45">
         <v>0.40483400982696005</v>
       </c>
       <c r="I30" s="8">
@@ -7703,7 +9571,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="56">
+      <c r="K30" s="45">
         <v>0.45593459273049103</v>
       </c>
       <c r="L30" s="8">
@@ -7723,7 +9591,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="72">
+      <c r="Q30" s="51">
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
@@ -7773,13 +9641,13 @@
       <c r="AE30" s="22">
         <v>2.4980589007232883</v>
       </c>
-      <c r="AF30" s="71">
+      <c r="AF30" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A31" s="72">
+      <c r="A31" s="51">
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
@@ -7803,7 +9671,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="56">
+      <c r="H31" s="45">
         <v>1.3733713248084962</v>
       </c>
       <c r="I31" s="8">
@@ -7813,7 +9681,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K31" s="56">
+      <c r="K31" s="45">
         <v>0.66158854335154271</v>
       </c>
       <c r="L31" s="8">
@@ -7833,7 +9701,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="72">
+      <c r="Q31" s="51">
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
@@ -7883,13 +9751,13 @@
       <c r="AE31" s="22">
         <v>1.8049209265419475</v>
       </c>
-      <c r="AF31" s="71">
+      <c r="AF31" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A32" s="72">
+      <c r="A32" s="51">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
@@ -7913,7 +9781,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="56">
+      <c r="H32" s="45">
         <v>0.16659480574968716</v>
       </c>
       <c r="I32" s="8">
@@ -7923,7 +9791,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K32" s="56">
+      <c r="K32" s="45">
         <v>0.64764809717093408</v>
       </c>
       <c r="L32" s="8">
@@ -7943,7 +9811,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="72">
+      <c r="Q32" s="51">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
@@ -7993,13 +9861,13 @@
       <c r="AE32" s="22">
         <v>2.5515764030884731</v>
       </c>
-      <c r="AF32" s="71">
+      <c r="AF32" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A33" s="72">
+      <c r="A33" s="51">
         <f t="shared" si="10"/>
         <v>29</v>
       </c>
@@ -8023,7 +9891,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H33" s="56">
+      <c r="H33" s="45">
         <v>1.1175662953581347</v>
       </c>
       <c r="I33" s="8">
@@ -8033,7 +9901,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K33" s="56">
+      <c r="K33" s="45">
         <v>0.48472182988982809</v>
       </c>
       <c r="L33" s="8">
@@ -8053,7 +9921,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="72">
+      <c r="Q33" s="51">
         <f t="shared" si="11"/>
         <v>29</v>
       </c>
@@ -8103,13 +9971,13 @@
       <c r="AE33" s="22">
         <v>0.297885323648793</v>
       </c>
-      <c r="AF33" s="71">
+      <c r="AF33" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A34" s="72">
+      <c r="A34" s="51">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
@@ -8133,7 +10001,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H34" s="56">
+      <c r="H34" s="45">
         <v>1.1123871822260198</v>
       </c>
       <c r="I34" s="8">
@@ -8143,7 +10011,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K34" s="56">
+      <c r="K34" s="45">
         <v>0.31078994720297859</v>
       </c>
       <c r="L34" s="8">
@@ -8163,7 +10031,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="72">
+      <c r="Q34" s="51">
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
@@ -8213,13 +10081,13 @@
       <c r="AE34" s="22">
         <v>0.75123035981322672</v>
       </c>
-      <c r="AF34" s="71">
+      <c r="AF34" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A35" s="72">
+      <c r="A35" s="51">
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
@@ -8243,7 +10111,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="56">
+      <c r="H35" s="45">
         <v>0.2879155308694723</v>
       </c>
       <c r="I35" s="8">
@@ -8253,7 +10121,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K35" s="56">
+      <c r="K35" s="45">
         <v>0.28683654896694843</v>
       </c>
       <c r="L35" s="8">
@@ -8273,7 +10141,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="72">
+      <c r="Q35" s="51">
         <f t="shared" si="11"/>
         <v>31</v>
       </c>
@@ -8323,13 +10191,13 @@
       <c r="AE35" s="22">
         <v>2.0044894192327645</v>
       </c>
-      <c r="AF35" s="71">
+      <c r="AF35" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A36" s="72">
+      <c r="A36" s="51">
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
@@ -8353,7 +10221,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="56">
+      <c r="H36" s="45">
         <v>1.2643078341013825</v>
       </c>
       <c r="I36" s="8">
@@ -8363,7 +10231,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K36" s="56">
+      <c r="K36" s="45">
         <v>0.40422977996154663</v>
       </c>
       <c r="L36" s="8">
@@ -8383,7 +10251,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="72">
+      <c r="Q36" s="51">
         <f t="shared" si="11"/>
         <v>32</v>
       </c>
@@ -8433,13 +10301,13 @@
       <c r="AE36" s="22">
         <v>1.1482093813898129</v>
       </c>
-      <c r="AF36" s="71">
+      <c r="AF36" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A37" s="72">
+      <c r="A37" s="51">
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
@@ -8463,7 +10331,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="56">
+      <c r="H37" s="45">
         <v>2.7492458876308478E-2</v>
       </c>
       <c r="I37" s="8">
@@ -8473,7 +10341,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K37" s="56">
+      <c r="K37" s="45">
         <v>1.1551580248420665</v>
       </c>
       <c r="L37" s="8">
@@ -8493,7 +10361,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="72">
+      <c r="Q37" s="51">
         <f t="shared" si="11"/>
         <v>33</v>
       </c>
@@ -8543,13 +10411,13 @@
       <c r="AE37" s="22">
         <v>0.96063916745506139</v>
       </c>
-      <c r="AF37" s="71">
+      <c r="AF37" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A38" s="72">
+      <c r="A38" s="51">
         <f t="shared" si="10"/>
         <v>34</v>
       </c>
@@ -8573,7 +10441,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="56">
+      <c r="H38" s="45">
         <v>0.69305165562913906</v>
       </c>
       <c r="I38" s="8">
@@ -8583,7 +10451,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K38" s="56">
+      <c r="K38" s="45">
         <v>1.0672425794244209</v>
       </c>
       <c r="L38" s="8">
@@ -8603,7 +10471,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q38" s="72">
+      <c r="Q38" s="51">
         <f t="shared" si="11"/>
         <v>34</v>
       </c>
@@ -8653,13 +10521,13 @@
       <c r="AE38" s="22">
         <v>1.830730173650319</v>
       </c>
-      <c r="AF38" s="71">
+      <c r="AF38" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A39" s="72">
+      <c r="A39" s="51">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
@@ -8683,7 +10551,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="56">
+      <c r="H39" s="45">
         <v>1.0272770897549364</v>
       </c>
       <c r="I39" s="8">
@@ -8693,7 +10561,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K39" s="56">
+      <c r="K39" s="45">
         <v>0.33508861964781639</v>
       </c>
       <c r="L39" s="8">
@@ -8713,7 +10581,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="72">
+      <c r="Q39" s="51">
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
@@ -8763,13 +10631,13 @@
       <c r="AE39" s="22">
         <v>0.97056580095828116</v>
       </c>
-      <c r="AF39" s="71">
+      <c r="AF39" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A40" s="72">
+      <c r="A40" s="51">
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
@@ -8793,7 +10661,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="56">
+      <c r="H40" s="45">
         <v>8.3728995635853135E-3</v>
       </c>
       <c r="I40" s="8">
@@ -8803,7 +10671,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K40" s="56">
+      <c r="K40" s="45">
         <v>1.0437207739494003</v>
       </c>
       <c r="L40" s="8">
@@ -8823,7 +10691,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="72">
+      <c r="Q40" s="51">
         <f t="shared" si="11"/>
         <v>36</v>
       </c>
@@ -8873,13 +10741,13 @@
       <c r="AE40" s="22">
         <v>0.18308164922025208</v>
       </c>
-      <c r="AF40" s="71">
+      <c r="AF40" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A41" s="72">
+      <c r="A41" s="51">
         <f t="shared" si="10"/>
         <v>37</v>
       </c>
@@ -8903,7 +10771,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H41" s="56">
+      <c r="H41" s="45">
         <v>1.2759176793725393</v>
       </c>
       <c r="I41" s="8">
@@ -8913,7 +10781,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K41" s="56">
+      <c r="K41" s="45">
         <v>0.54389319742423781</v>
       </c>
       <c r="L41" s="8">
@@ -8933,7 +10801,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="72">
+      <c r="Q41" s="51">
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
@@ -8983,13 +10851,13 @@
       <c r="AE41" s="22">
         <v>2.7596041138950773</v>
       </c>
-      <c r="AF41" s="71">
+      <c r="AF41" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A42" s="72">
+      <c r="A42" s="51">
         <f t="shared" si="10"/>
         <v>38</v>
       </c>
@@ -9013,7 +10881,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H42" s="56">
+      <c r="H42" s="45">
         <v>0.57531315042573317</v>
       </c>
       <c r="I42" s="8">
@@ -9023,7 +10891,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K42" s="56">
+      <c r="K42" s="45">
         <v>0.72753591723380229</v>
       </c>
       <c r="L42" s="8">
@@ -9043,7 +10911,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="72">
+      <c r="Q42" s="51">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
@@ -9093,13 +10961,13 @@
       <c r="AE42" s="22">
         <v>1.5796295052949612E-2</v>
       </c>
-      <c r="AF42" s="71">
+      <c r="AF42" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="72">
+      <c r="A43" s="51">
         <f t="shared" si="10"/>
         <v>39</v>
       </c>
@@ -9123,7 +10991,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H43" s="56">
+      <c r="H43" s="45">
         <v>0.87544275643177571</v>
       </c>
       <c r="I43" s="8">
@@ -9133,7 +11001,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K43" s="56">
+      <c r="K43" s="45">
         <v>1.2150199407940916</v>
       </c>
       <c r="L43" s="8">
@@ -9153,7 +11021,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="72">
+      <c r="Q43" s="51">
         <f t="shared" si="11"/>
         <v>39</v>
       </c>
@@ -9203,13 +11071,13 @@
       <c r="AE43" s="22">
         <v>0.44816592303231906</v>
       </c>
-      <c r="AF43" s="71">
+      <c r="AF43" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A44" s="72">
+      <c r="A44" s="51">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
@@ -9233,7 +11101,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H44" s="56">
+      <c r="H44" s="45">
         <v>0.54549009063997311</v>
       </c>
       <c r="I44" s="8">
@@ -9243,7 +11111,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K44" s="56">
+      <c r="K44" s="45">
         <v>0.41532171391949213</v>
       </c>
       <c r="L44" s="8">
@@ -9263,7 +11131,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="72">
+      <c r="Q44" s="51">
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
@@ -9313,13 +11181,13 @@
       <c r="AE44" s="22">
         <v>2.4881322672200685</v>
       </c>
-      <c r="AF44" s="71">
+      <c r="AF44" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A45" s="72">
+      <c r="A45" s="51">
         <f t="shared" si="10"/>
         <v>41</v>
       </c>
@@ -9343,7 +11211,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="56">
+      <c r="H45" s="45">
         <v>0.89236119266335034</v>
       </c>
       <c r="I45" s="8">
@@ -9353,7 +11221,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K45" s="56">
+      <c r="K45" s="45">
         <v>9.926633503219702E-2</v>
       </c>
       <c r="L45" s="8">
@@ -9373,7 +11241,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="72">
+      <c r="Q45" s="51">
         <f t="shared" si="11"/>
         <v>41</v>
       </c>
@@ -9423,13 +11291,13 @@
       <c r="AE45" s="22">
         <v>2.6971958006530961</v>
       </c>
-      <c r="AF45" s="71">
+      <c r="AF45" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A46" s="72">
+      <c r="A46" s="51">
         <f t="shared" si="10"/>
         <v>42</v>
       </c>
@@ -9453,7 +11321,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H46" s="56">
+      <c r="H46" s="45">
         <v>0.69715178685872969</v>
       </c>
       <c r="I46" s="8">
@@ -9463,7 +11331,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K46" s="56">
+      <c r="K46" s="45">
         <v>0.76737192907498397</v>
       </c>
       <c r="L46" s="8">
@@ -9483,7 +11351,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="72">
+      <c r="Q46" s="51">
         <f t="shared" si="11"/>
         <v>42</v>
       </c>
@@ -9533,13 +11401,13 @@
       <c r="AE46" s="22">
         <v>0.53318969695120089</v>
       </c>
-      <c r="AF46" s="71">
+      <c r="AF46" s="50">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A47" s="72">
+      <c r="A47" s="51">
         <f t="shared" si="10"/>
         <v>43</v>
       </c>
@@ -9563,7 +11431,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H47" s="56">
+      <c r="H47" s="45">
         <v>1.2898581255531478</v>
       </c>
       <c r="I47" s="8">
@@ -9573,7 +11441,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K47" s="56">
+      <c r="K47" s="45">
         <v>0.12995258033997617</v>
       </c>
       <c r="L47" s="8">
@@ -9593,7 +11461,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="72">
+      <c r="Q47" s="51">
         <f t="shared" si="11"/>
         <v>43</v>
       </c>
@@ -9643,13 +11511,13 @@
       <c r="AE47" s="22">
         <v>0.29848955351420636</v>
       </c>
-      <c r="AF47" s="71">
+      <c r="AF47" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A48" s="72">
+      <c r="A48" s="51">
         <f t="shared" si="10"/>
         <v>44</v>
       </c>
@@ -9673,7 +11541,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H48" s="56">
+      <c r="H48" s="45">
         <v>1.0531726554155094</v>
       </c>
       <c r="I48" s="8">
@@ -9683,7 +11551,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K48" s="56">
+      <c r="K48" s="45">
         <v>1.3106608966338082</v>
       </c>
       <c r="L48" s="8">
@@ -9703,7 +11571,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="72">
+      <c r="Q48" s="51">
         <f t="shared" si="11"/>
         <v>44</v>
       </c>
@@ -9753,13 +11621,13 @@
       <c r="AE48" s="22">
         <v>3.9447578356273078E-2</v>
       </c>
-      <c r="AF48" s="71">
+      <c r="AF48" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A49" s="72">
+      <c r="A49" s="51">
         <f t="shared" si="10"/>
         <v>45</v>
       </c>
@@ -9783,7 +11651,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H49" s="56">
+      <c r="H49" s="45">
         <v>0.22926207464827417</v>
       </c>
       <c r="I49" s="8">
@@ -9793,7 +11661,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K49" s="56">
+      <c r="K49" s="45">
         <v>0.46253796197393715</v>
       </c>
       <c r="L49" s="8">
@@ -9813,7 +11681,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="72">
+      <c r="Q49" s="51">
         <f t="shared" si="11"/>
         <v>45</v>
       </c>
@@ -9863,13 +11731,13 @@
       <c r="AE49" s="22">
         <v>0.66577499313333532</v>
       </c>
-      <c r="AF49" s="71">
+      <c r="AF49" s="50">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A50" s="72">
+      <c r="A50" s="51">
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
@@ -9893,7 +11761,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H50" s="56">
+      <c r="H50" s="45">
         <v>0.15373334147160253</v>
       </c>
       <c r="I50" s="8">
@@ -9903,7 +11771,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K50" s="56">
+      <c r="K50" s="45">
         <v>1.2055249000518813</v>
       </c>
       <c r="L50" s="8">
@@ -9923,7 +11791,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="72">
+      <c r="Q50" s="51">
         <f t="shared" si="11"/>
         <v>46</v>
       </c>
@@ -9973,13 +11841,13 @@
       <c r="AE50" s="22">
         <v>1.2867506576738792</v>
       </c>
-      <c r="AF50" s="71">
+      <c r="AF50" s="50">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A51" s="72">
+      <c r="A51" s="51">
         <f t="shared" si="10"/>
         <v>47</v>
       </c>
@@ -10003,7 +11871,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H51" s="56">
+      <c r="H51" s="45">
         <v>0.47790266426587724</v>
       </c>
       <c r="I51" s="8">
@@ -10013,7 +11881,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K51" s="56">
+      <c r="K51" s="45">
         <v>0.3886924405652028</v>
       </c>
       <c r="L51" s="8">
@@ -10033,7 +11901,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="72">
+      <c r="Q51" s="51">
         <f t="shared" si="11"/>
         <v>47</v>
       </c>
@@ -10083,13 +11951,13 @@
       <c r="AE51" s="22">
         <v>1.3362975066377758</v>
       </c>
-      <c r="AF51" s="71">
+      <c r="AF51" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A52" s="72">
+      <c r="A52" s="51">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
@@ -10113,7 +11981,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H52" s="56">
+      <c r="H52" s="45">
         <v>1.338800744651631</v>
       </c>
       <c r="I52" s="8">
@@ -10123,7 +11991,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K52" s="56">
+      <c r="K52" s="45">
         <v>1.3864917447431866</v>
       </c>
       <c r="L52" s="8">
@@ -10143,7 +12011,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="72">
+      <c r="Q52" s="51">
         <f t="shared" si="11"/>
         <v>48</v>
       </c>
@@ -10193,13 +12061,13 @@
       <c r="AE52" s="22">
         <v>2.5701348918118838</v>
       </c>
-      <c r="AF52" s="71">
+      <c r="AF52" s="50">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A53" s="72">
+      <c r="A53" s="51">
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
@@ -10223,7 +12091,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H53" s="56">
+      <c r="H53" s="45">
         <v>0.31260263679921868</v>
       </c>
       <c r="I53" s="8">
@@ -10233,7 +12101,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K53" s="56">
+      <c r="K53" s="45">
         <v>0.76439393902401798</v>
       </c>
       <c r="L53" s="8">
@@ -10253,7 +12121,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q53" s="72">
+      <c r="Q53" s="51">
         <f t="shared" si="11"/>
         <v>49</v>
       </c>
@@ -10303,13 +12171,13 @@
       <c r="AE53" s="22">
         <v>0.23314640949736015</v>
       </c>
-      <c r="AF53" s="71">
+      <c r="AF53" s="50">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A54" s="72">
+      <c r="A54" s="51">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
@@ -10333,7 +12201,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H54" s="56">
+      <c r="H54" s="45">
         <v>0.88649153111362022</v>
       </c>
       <c r="I54" s="8">
@@ -10343,7 +12211,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K54" s="56">
+      <c r="K54" s="45">
         <v>0.76970252998443545</v>
       </c>
       <c r="L54" s="8">
@@ -10363,7 +12231,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="72">
+      <c r="Q54" s="51">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
@@ -10413,13 +12281,13 @@
       <c r="AE54" s="22">
         <v>2.1709979064302498</v>
       </c>
-      <c r="AF54" s="71">
+      <c r="AF54" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A55" s="72">
+      <c r="A55" s="51">
         <f t="shared" si="10"/>
         <v>51</v>
       </c>
@@ -10443,7 +12311,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H55" s="56">
+      <c r="H55" s="45">
         <v>0.89132537003692724</v>
       </c>
       <c r="I55" s="8">
@@ -10453,7 +12321,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K55" s="56">
+      <c r="K55" s="45">
         <v>1.1846789696951199</v>
       </c>
       <c r="L55" s="8">
@@ -10473,7 +12341,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="72">
+      <c r="Q55" s="51">
         <f t="shared" si="11"/>
         <v>51</v>
       </c>
@@ -10523,13 +12391,13 @@
       <c r="AE55" s="22">
         <v>1.786189800714133</v>
       </c>
-      <c r="AF55" s="71">
+      <c r="AF55" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A56" s="72">
+      <c r="A56" s="51">
         <f t="shared" si="10"/>
         <v>52</v>
       </c>
@@ -10553,7 +12421,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H56" s="56">
+      <c r="H56" s="45">
         <v>1.0388006164738914</v>
       </c>
       <c r="I56" s="8">
@@ -10563,7 +12431,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K56" s="56">
+      <c r="K56" s="45">
         <v>0.66819191259498878</v>
       </c>
       <c r="L56" s="8">
@@ -10583,7 +12451,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="72">
+      <c r="Q56" s="51">
         <f t="shared" si="11"/>
         <v>52</v>
       </c>
@@ -10633,13 +12501,13 @@
       <c r="AE56" s="22">
         <v>0.46983187963499856</v>
       </c>
-      <c r="AF56" s="71">
+      <c r="AF56" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A57" s="72">
+      <c r="A57" s="51">
         <f t="shared" si="10"/>
         <v>53</v>
       </c>
@@ -10663,7 +12531,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H57" s="56">
+      <c r="H57" s="45">
         <v>0.35002172917874685</v>
       </c>
       <c r="I57" s="8">
@@ -10673,7 +12541,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K57" s="56">
+      <c r="K57" s="45">
         <v>0.33280117801446574</v>
       </c>
       <c r="L57" s="8">
@@ -10693,7 +12561,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="72">
+      <c r="Q57" s="51">
         <f t="shared" si="11"/>
         <v>53</v>
       </c>
@@ -10743,13 +12611,13 @@
       <c r="AE57" s="22">
         <v>8.5023773918881787E-2</v>
       </c>
-      <c r="AF57" s="71">
+      <c r="AF57" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A58" s="72">
+      <c r="A58" s="51">
         <f t="shared" si="10"/>
         <v>54</v>
       </c>
@@ -10773,7 +12641,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H58" s="56">
+      <c r="H58" s="45">
         <v>0.31527851191747791</v>
       </c>
       <c r="I58" s="8">
@@ -10783,7 +12651,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K58" s="56">
+      <c r="K58" s="45">
         <v>1.1423828791161839</v>
       </c>
       <c r="L58" s="8">
@@ -10803,7 +12671,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q58" s="72">
+      <c r="Q58" s="51">
         <f t="shared" si="11"/>
         <v>54</v>
       </c>
@@ -10853,13 +12721,13 @@
       <c r="AE58" s="22">
         <v>2.8100141483809926</v>
       </c>
-      <c r="AF58" s="71">
+      <c r="AF58" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A59" s="72">
+      <c r="A59" s="51">
         <f t="shared" si="10"/>
         <v>55</v>
       </c>
@@ -10883,7 +12751,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H59" s="56">
+      <c r="H59" s="45">
         <v>0.39378523514511554</v>
       </c>
       <c r="I59" s="8">
@@ -10893,7 +12761,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K59" s="56">
+      <c r="K59" s="45">
         <v>0.59266317941831725</v>
       </c>
       <c r="L59" s="8">
@@ -10913,7 +12781,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q59" s="72">
+      <c r="Q59" s="51">
         <f t="shared" si="11"/>
         <v>55</v>
       </c>
@@ -10963,13 +12831,13 @@
       <c r="AE59" s="22">
         <v>0.17496770531327249</v>
       </c>
-      <c r="AF59" s="71">
+      <c r="AF59" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A60" s="72">
+      <c r="A60" s="51">
         <f t="shared" si="10"/>
         <v>56</v>
       </c>
@@ -10993,7 +12861,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H60" s="56">
+      <c r="H60" s="45">
         <v>0.12982310251167331</v>
       </c>
       <c r="I60" s="8">
@@ -11003,7 +12871,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K60" s="56">
+      <c r="K60" s="45">
         <v>0.51540807519760734</v>
       </c>
       <c r="L60" s="8">
@@ -11023,7 +12891,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q60" s="72">
+      <c r="Q60" s="51">
         <f t="shared" si="11"/>
         <v>56</v>
       </c>
@@ -11073,13 +12941,13 @@
       <c r="AE60" s="22">
         <v>1.7171349589526046</v>
       </c>
-      <c r="AF60" s="71">
+      <c r="AF60" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A61" s="72">
+      <c r="A61" s="51">
         <f t="shared" si="10"/>
         <v>57</v>
       </c>
@@ -11103,7 +12971,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H61" s="56">
+      <c r="H61" s="45">
         <v>0.61657341837824631</v>
       </c>
       <c r="I61" s="8">
@@ -11113,7 +12981,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K61" s="56">
+      <c r="K61" s="45">
         <v>0.55852419202246162</v>
       </c>
       <c r="L61" s="8">
@@ -11133,7 +13001,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="72">
+      <c r="Q61" s="51">
         <f t="shared" si="11"/>
         <v>57</v>
       </c>
@@ -11183,13 +13051,13 @@
       <c r="AE61" s="22">
         <v>0.96400559099093597</v>
       </c>
-      <c r="AF61" s="71">
+      <c r="AF61" s="50">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A62" s="72">
+      <c r="A62" s="51">
         <f t="shared" si="10"/>
         <v>58</v>
       </c>
@@ -11213,7 +13081,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H62" s="56">
+      <c r="H62" s="45">
         <v>0.53513186437574389</v>
       </c>
       <c r="I62" s="8">
@@ -11223,7 +13091,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K62" s="56">
+      <c r="K62" s="45">
         <v>0.83418248847926257</v>
       </c>
       <c r="L62" s="8">
@@ -11243,7 +13111,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q62" s="72">
+      <c r="Q62" s="51">
         <f t="shared" si="11"/>
         <v>58</v>
       </c>
@@ -11293,13 +13161,13 @@
       <c r="AE62" s="22">
         <v>1.8940016724143189</v>
       </c>
-      <c r="AF62" s="71">
+      <c r="AF62" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A63" s="72">
+      <c r="A63" s="51">
         <f t="shared" si="10"/>
         <v>59</v>
       </c>
@@ -11323,7 +13191,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H63" s="56">
+      <c r="H63" s="45">
         <v>0.20293491622669146</v>
       </c>
       <c r="I63" s="8">
@@ -11333,7 +13201,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K63" s="56">
+      <c r="K63" s="45">
         <v>1.3963752189703054</v>
       </c>
       <c r="L63" s="8">
@@ -11353,7 +13221,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q63" s="72">
+      <c r="Q63" s="51">
         <f t="shared" si="11"/>
         <v>59</v>
       </c>
@@ -11403,13 +13271,13 @@
       <c r="AE63" s="22">
         <v>1.9198972380748924</v>
       </c>
-      <c r="AF63" s="71">
+      <c r="AF63" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A64" s="72">
+      <c r="A64" s="51">
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
@@ -11433,7 +13301,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H64" s="56">
+      <c r="H64" s="45">
         <v>2.8355644398327582E-2</v>
       </c>
       <c r="I64" s="8">
@@ -11443,7 +13311,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K64" s="56">
+      <c r="K64" s="45">
         <v>1.165473091830195</v>
       </c>
       <c r="L64" s="8">
@@ -11463,7 +13331,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q64" s="72">
+      <c r="Q64" s="51">
         <f t="shared" si="11"/>
         <v>60</v>
       </c>
@@ -11513,13 +13381,13 @@
       <c r="AE64" s="22">
         <v>1.1549422284615618</v>
       </c>
-      <c r="AF64" s="71">
+      <c r="AF64" s="50">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A65" s="72">
+      <c r="A65" s="51">
         <f t="shared" si="10"/>
         <v>61</v>
       </c>
@@ -11543,7 +13411,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H65" s="56">
+      <c r="H65" s="45">
         <v>0.74734602496414071</v>
       </c>
       <c r="I65" s="8">
@@ -11553,7 +13421,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K65" s="56">
+      <c r="K65" s="45">
         <v>1.1281403180028686</v>
       </c>
       <c r="L65" s="8">
@@ -11573,7 +13441,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q65" s="72">
+      <c r="Q65" s="51">
         <f t="shared" si="11"/>
         <v>61</v>
       </c>
@@ -11623,13 +13491,13 @@
       <c r="AE65" s="22">
         <v>0.61562391430402541</v>
       </c>
-      <c r="AF65" s="71">
+      <c r="AF65" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A66" s="72">
+      <c r="A66" s="51">
         <f t="shared" si="10"/>
         <v>62</v>
       </c>
@@ -11653,7 +13521,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H66" s="56">
+      <c r="H66" s="45">
         <v>0.18049209265419477</v>
       </c>
       <c r="I66" s="8">
@@ -11663,7 +13531,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K66" s="56">
+      <c r="K66" s="45">
         <v>0.29710845667897579</v>
       </c>
       <c r="L66" s="8">
@@ -11683,7 +13551,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q66" s="72">
+      <c r="Q66" s="51">
         <f t="shared" si="11"/>
         <v>62</v>
       </c>
@@ -11733,13 +13601,13 @@
       <c r="AE66" s="22">
         <v>1.3818737022003844</v>
       </c>
-      <c r="AF66" s="71">
+      <c r="AF66" s="50">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A67" s="72">
+      <c r="A67" s="51">
         <f t="shared" si="10"/>
         <v>63</v>
       </c>
@@ -11763,7 +13631,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H67" s="56">
+      <c r="H67" s="45">
         <v>1.1898580828272345</v>
       </c>
       <c r="I67" s="8">
@@ -11773,7 +13641,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K67" s="56">
+      <c r="K67" s="45">
         <v>0.16896856593523971</v>
       </c>
       <c r="L67" s="8">
@@ -11793,7 +13661,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q67" s="72">
+      <c r="Q67" s="51">
         <f t="shared" si="11"/>
         <v>63</v>
       </c>
@@ -11843,13 +13711,13 @@
       <c r="AE67" s="22">
         <v>1.726371044038209E-3</v>
       </c>
-      <c r="AF67" s="71">
+      <c r="AF67" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A68" s="72">
+      <c r="A68" s="51">
         <f t="shared" si="10"/>
         <v>64</v>
       </c>
@@ -11873,7 +13741,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H68" s="56">
+      <c r="H68" s="45">
         <v>1.9205877864925076E-2</v>
       </c>
       <c r="I68" s="8">
@@ -11883,7 +13751,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K68" s="56">
+      <c r="K68" s="45">
         <v>1.9464833521530809E-2</v>
       </c>
       <c r="L68" s="8">
@@ -11903,7 +13771,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q68" s="72">
+      <c r="Q68" s="51">
         <f t="shared" si="11"/>
         <v>64</v>
       </c>
@@ -11953,13 +13821,13 @@
       <c r="AE68" s="22">
         <v>2.0533457197790459</v>
       </c>
-      <c r="AF68" s="71">
+      <c r="AF68" s="50">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A69" s="72">
+      <c r="A69" s="51">
         <f t="shared" si="10"/>
         <v>65</v>
       </c>
@@ -11983,7 +13851,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H69" s="56">
+      <c r="H69" s="45">
         <v>0.72839910275582143</v>
       </c>
       <c r="I69" s="8">
@@ -11993,7 +13861,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K69" s="56">
+      <c r="K69" s="45">
         <v>1.0995257179479354</v>
       </c>
       <c r="L69" s="8">
@@ -12013,7 +13881,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q69" s="72">
+      <c r="Q69" s="51">
         <f t="shared" si="11"/>
         <v>65</v>
       </c>
@@ -12063,13 +13931,13 @@
       <c r="AE69" s="22">
         <v>1.5776441785943174</v>
       </c>
-      <c r="AF69" s="71">
+      <c r="AF69" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A70" s="72">
+      <c r="A70" s="51">
         <f t="shared" si="10"/>
         <v>66</v>
       </c>
@@ -12093,7 +13961,7 @@
         <f t="shared" ref="G70:G104" si="13">IF(AND(F70 &lt;= 2*E70, F70 &gt;= E70^3), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="H70" s="56">
+      <c r="H70" s="45">
         <v>0.82119154637287517</v>
       </c>
       <c r="I70" s="8">
@@ -12103,7 +13971,7 @@
         <f t="shared" ref="J70:J104" si="14">IF(AND(I70 &lt;= 2*H70, I70 &gt;= H70^3), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="56">
+      <c r="K70" s="45">
         <v>0.99646136661885421</v>
       </c>
       <c r="L70" s="8">
@@ -12123,7 +13991,7 @@
         <f t="shared" ref="P70:P104" si="16">IF(AND(O70 &lt;= 2*N70, O70 &gt;= N70^3), 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="Q70" s="72">
+      <c r="Q70" s="51">
         <f t="shared" si="11"/>
         <v>66</v>
       </c>
@@ -12173,13 +14041,13 @@
       <c r="AE70" s="22">
         <v>0.45679777825251011</v>
       </c>
-      <c r="AF70" s="71">
+      <c r="AF70" s="50">
         <f t="shared" ref="AF70:AF104" si="21">IF(AND(AE70 &lt;= 2*AD70, AE70 &gt;= AD70^3), 1, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A71" s="72">
+      <c r="A71" s="51">
         <f t="shared" ref="A71:A103" si="22">A70+1</f>
         <v>67</v>
       </c>
@@ -12203,7 +14071,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H71" s="56">
+      <c r="H71" s="45">
         <v>0.42468727683339946</v>
       </c>
       <c r="I71" s="8">
@@ -12213,7 +14081,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K71" s="56">
+      <c r="K71" s="45">
         <v>0.13331900387585069</v>
       </c>
       <c r="L71" s="8">
@@ -12233,7 +14101,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q71" s="72">
+      <c r="Q71" s="51">
         <f t="shared" ref="Q71:Q103" si="23">Q70+1</f>
         <v>67</v>
       </c>
@@ -12283,13 +14151,13 @@
       <c r="AE71" s="22">
         <v>0.52403993041779839</v>
       </c>
-      <c r="AF71" s="71">
+      <c r="AF71" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A72" s="72">
+      <c r="A72" s="51">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
@@ -12313,7 +14181,7 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H72" s="56">
+      <c r="H72" s="45">
         <v>1.7997418134098331E-2</v>
       </c>
       <c r="I72" s="8">
@@ -12323,7 +14191,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K72" s="56">
+      <c r="K72" s="45">
         <v>0.61540811792352057</v>
       </c>
       <c r="L72" s="8">
@@ -12343,7 +14211,7 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q72" s="72">
+      <c r="Q72" s="51">
         <f t="shared" si="23"/>
         <v>68</v>
       </c>
@@ -12393,13 +14261,13 @@
       <c r="AE72" s="22">
         <v>2.0136391857661669</v>
       </c>
-      <c r="AF72" s="71">
+      <c r="AF72" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A73" s="72">
+      <c r="A73" s="51">
         <f t="shared" si="22"/>
         <v>69</v>
       </c>
@@ -12423,7 +14291,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H73" s="56">
+      <c r="H73" s="45">
         <v>1.2721196630756553</v>
       </c>
       <c r="I73" s="8">
@@ -12433,7 +14301,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K73" s="56">
+      <c r="K73" s="45">
         <v>0.44402263252662738</v>
       </c>
       <c r="L73" s="8">
@@ -12453,7 +14321,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q73" s="72">
+      <c r="Q73" s="51">
         <f t="shared" si="23"/>
         <v>69</v>
       </c>
@@ -12503,13 +14371,13 @@
       <c r="AE73" s="22">
         <v>1.4960731467635118</v>
       </c>
-      <c r="AF73" s="71">
+      <c r="AF73" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A74" s="72">
+      <c r="A74" s="51">
         <f t="shared" si="22"/>
         <v>70</v>
       </c>
@@ -12533,7 +14401,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H74" s="56">
+      <c r="H74" s="45">
         <v>1.0639624744407483</v>
       </c>
       <c r="I74" s="8">
@@ -12543,7 +14411,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K74" s="56">
+      <c r="K74" s="45">
         <v>0.25403549913022244</v>
       </c>
       <c r="L74" s="8">
@@ -12563,7 +14431,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="72">
+      <c r="Q74" s="51">
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
@@ -12613,13 +14481,13 @@
       <c r="AE74" s="22">
         <v>2.3034968840601824</v>
       </c>
-      <c r="AF74" s="71">
+      <c r="AF74" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A75" s="72">
+      <c r="A75" s="51">
         <f t="shared" si="22"/>
         <v>71</v>
       </c>
@@ -12643,7 +14511,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H75" s="56">
+      <c r="H75" s="45">
         <v>0.56305591601306193</v>
       </c>
       <c r="I75" s="8">
@@ -12653,7 +14521,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K75" s="56">
+      <c r="K75" s="45">
         <v>1.3530001464888455</v>
       </c>
       <c r="L75" s="8">
@@ -12673,7 +14541,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q75" s="72">
+      <c r="Q75" s="51">
         <f t="shared" si="23"/>
         <v>71</v>
       </c>
@@ -12723,13 +14591,13 @@
       <c r="AE75" s="22">
         <v>1.3200696188238166</v>
       </c>
-      <c r="AF75" s="71">
+      <c r="AF75" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A76" s="72">
+      <c r="A76" s="51">
         <f t="shared" si="22"/>
         <v>72</v>
       </c>
@@ -12753,7 +14621,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H76" s="56">
+      <c r="H76" s="45">
         <v>0.16530002746665851</v>
       </c>
       <c r="I76" s="8">
@@ -12763,7 +14631,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K76" s="56">
+      <c r="K76" s="45">
         <v>0.51208481093783376</v>
       </c>
       <c r="L76" s="8">
@@ -12783,7 +14651,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q76" s="72">
+      <c r="Q76" s="51">
         <f t="shared" si="23"/>
         <v>72</v>
       </c>
@@ -12833,13 +14701,13 @@
       <c r="AE76" s="22">
         <v>0.93025503707998891</v>
       </c>
-      <c r="AF76" s="71">
+      <c r="AF76" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A77" s="72">
+      <c r="A77" s="51">
         <f t="shared" si="22"/>
         <v>73</v>
       </c>
@@ -12863,7 +14731,7 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H77" s="56">
+      <c r="H77" s="45">
         <v>0.96862363353373804</v>
       </c>
       <c r="I77" s="8">
@@ -12873,7 +14741,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K77" s="56">
+      <c r="K77" s="45">
         <v>1.215581011383404</v>
       </c>
       <c r="L77" s="8">
@@ -12893,7 +14761,7 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q77" s="72">
+      <c r="Q77" s="51">
         <f t="shared" si="23"/>
         <v>73</v>
       </c>
@@ -12943,13 +14811,13 @@
       <c r="AE77" s="22">
         <v>2.1197246864223152</v>
       </c>
-      <c r="AF77" s="71">
+      <c r="AF77" s="50">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A78" s="72">
+      <c r="A78" s="51">
         <f t="shared" si="22"/>
         <v>74</v>
       </c>
@@ -12973,7 +14841,7 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H78" s="56">
+      <c r="H78" s="45">
         <v>0.32442827845088046</v>
       </c>
       <c r="I78" s="8">
@@ -12983,7 +14851,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K78" s="56">
+      <c r="K78" s="45">
         <v>1.352482235175634</v>
       </c>
       <c r="L78" s="8">
@@ -13003,7 +14871,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q78" s="72">
+      <c r="Q78" s="51">
         <f t="shared" si="23"/>
         <v>74</v>
       </c>
@@ -13053,13 +14921,13 @@
       <c r="AE78" s="22">
         <v>1.6222708700827051</v>
       </c>
-      <c r="AF78" s="71">
+      <c r="AF78" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A79" s="72">
+      <c r="A79" s="51">
         <f t="shared" si="22"/>
         <v>75</v>
       </c>
@@ -13083,7 +14951,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H79" s="56">
+      <c r="H79" s="45">
         <v>0.12162284005249183</v>
       </c>
       <c r="I79" s="8">
@@ -13093,7 +14961,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K79" s="56">
+      <c r="K79" s="45">
         <v>0.29529576708273564</v>
       </c>
       <c r="L79" s="8">
@@ -13113,7 +14981,7 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q79" s="72">
+      <c r="Q79" s="51">
         <f t="shared" si="23"/>
         <v>75</v>
       </c>
@@ -13163,13 +15031,13 @@
       <c r="AE79" s="22">
         <v>6.5602099673451944E-2</v>
       </c>
-      <c r="AF79" s="71">
+      <c r="AF79" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A80" s="72">
+      <c r="A80" s="51">
         <f t="shared" si="22"/>
         <v>76</v>
       </c>
@@ -13193,7 +15061,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H80" s="56">
+      <c r="H80" s="45">
         <v>1.185801110873745</v>
       </c>
       <c r="I80" s="8">
@@ -13203,7 +15071,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K80" s="56">
+      <c r="K80" s="45">
         <v>0.55507144993438517</v>
       </c>
       <c r="L80" s="8">
@@ -13223,7 +15091,7 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q80" s="72">
+      <c r="Q80" s="51">
         <f t="shared" si="23"/>
         <v>76</v>
       </c>
@@ -13273,13 +15141,13 @@
       <c r="AE80" s="22">
         <v>2.4622367015594957</v>
       </c>
-      <c r="AF80" s="71">
+      <c r="AF80" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A81" s="72">
+      <c r="A81" s="51">
         <f t="shared" si="22"/>
         <v>77</v>
       </c>
@@ -13303,7 +15171,7 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H81" s="56">
+      <c r="H81" s="45">
         <v>1.042037562181463</v>
       </c>
       <c r="I81" s="8">
@@ -13313,7 +15181,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K81" s="56">
+      <c r="K81" s="45">
         <v>1.1435050202948087</v>
       </c>
       <c r="L81" s="8">
@@ -13333,7 +15201,7 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q81" s="72">
+      <c r="Q81" s="51">
         <f t="shared" si="23"/>
         <v>77</v>
       </c>
@@ -13383,13 +15251,13 @@
       <c r="AE81" s="22">
         <v>0.99689295937986377</v>
       </c>
-      <c r="AF81" s="71">
+      <c r="AF81" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A82" s="72">
+      <c r="A82" s="51">
         <f t="shared" si="22"/>
         <v>78</v>
       </c>
@@ -13413,7 +15281,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H82" s="56">
+      <c r="H82" s="45">
         <v>0.99969831232642592</v>
       </c>
       <c r="I82" s="8">
@@ -13423,7 +15291,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K82" s="56">
+      <c r="K82" s="45">
         <v>1.1136819605090487</v>
       </c>
       <c r="L82" s="8">
@@ -13443,7 +15311,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q82" s="72">
+      <c r="Q82" s="51">
         <f t="shared" si="23"/>
         <v>78</v>
       </c>
@@ -13493,13 +15361,13 @@
       <c r="AE82" s="22">
         <v>1.4050933927426983</v>
       </c>
-      <c r="AF82" s="71">
+      <c r="AF82" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A83" s="72">
+      <c r="A83" s="51">
         <f t="shared" si="22"/>
         <v>79</v>
       </c>
@@ -13523,7 +15391,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H83" s="56">
+      <c r="H83" s="45">
         <v>1.2791546250801111</v>
       </c>
       <c r="I83" s="8">
@@ -13533,7 +15401,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K83" s="56">
+      <c r="K83" s="45">
         <v>0.40164022339548933</v>
       </c>
       <c r="L83" s="8">
@@ -13553,7 +15421,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q83" s="72">
+      <c r="Q83" s="51">
         <f t="shared" si="23"/>
         <v>79</v>
       </c>
@@ -13603,13 +15471,13 @@
       <c r="AE83" s="22">
         <v>2.2872689962462234</v>
       </c>
-      <c r="AF83" s="71">
+      <c r="AF83" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A84" s="72">
+      <c r="A84" s="51">
         <f t="shared" si="22"/>
         <v>80</v>
       </c>
@@ -13633,7 +15501,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H84" s="56">
+      <c r="H84" s="45">
         <v>0.25356074709311199</v>
       </c>
       <c r="I84" s="8">
@@ -13643,7 +15511,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K84" s="56">
+      <c r="K84" s="45">
         <v>0.91985365153965881</v>
       </c>
       <c r="L84" s="8">
@@ -13663,7 +15531,7 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q84" s="72">
+      <c r="Q84" s="51">
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
@@ -13713,13 +15581,13 @@
       <c r="AE84" s="22">
         <v>1.6769105136265143</v>
       </c>
-      <c r="AF84" s="71">
+      <c r="AF84" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A85" s="72">
+      <c r="A85" s="51">
         <f t="shared" si="22"/>
         <v>81</v>
       </c>
@@ -13743,7 +15611,7 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H85" s="56">
+      <c r="H85" s="45">
         <v>0.96055284890285952</v>
       </c>
       <c r="I85" s="8">
@@ -13753,7 +15621,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K85" s="56">
+      <c r="K85" s="45">
         <v>2.2227027191991943E-2</v>
       </c>
       <c r="L85" s="8">
@@ -13773,7 +15641,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q85" s="72">
+      <c r="Q85" s="51">
         <f t="shared" si="23"/>
         <v>81</v>
       </c>
@@ -13823,13 +15691,13 @@
       <c r="AE85" s="22">
         <v>2.0273638355662706</v>
       </c>
-      <c r="AF85" s="71">
+      <c r="AF85" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A86" s="72">
+      <c r="A86" s="51">
         <f t="shared" si="22"/>
         <v>82</v>
       </c>
@@ -13853,7 +15721,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H86" s="56">
+      <c r="H86" s="45">
         <v>1.3075102694784386</v>
       </c>
       <c r="I86" s="8">
@@ -13863,7 +15731,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K86" s="56">
+      <c r="K86" s="45">
         <v>1.3125167455061495</v>
       </c>
       <c r="L86" s="8">
@@ -13883,7 +15751,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q86" s="72">
+      <c r="Q86" s="51">
         <f t="shared" si="23"/>
         <v>82</v>
       </c>
@@ -13933,13 +15801,13 @@
       <c r="AE86" s="22">
         <v>1.4333195593127233</v>
       </c>
-      <c r="AF86" s="71">
+      <c r="AF86" s="50">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A87" s="72">
+      <c r="A87" s="51">
         <f t="shared" si="22"/>
         <v>83</v>
       </c>
@@ -13963,7 +15831,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H87" s="56">
+      <c r="H87" s="45">
         <v>0.42235667592394788</v>
       </c>
       <c r="I87" s="8">
@@ -13973,7 +15841,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K87" s="56">
+      <c r="K87" s="45">
         <v>0.65157559129612108</v>
       </c>
       <c r="L87" s="8">
@@ -13993,7 +15861,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q87" s="72">
+      <c r="Q87" s="51">
         <f t="shared" si="23"/>
         <v>83</v>
       </c>
@@ -14043,13 +15911,13 @@
       <c r="AE87" s="22">
         <v>1.0686236762596513</v>
       </c>
-      <c r="AF87" s="71">
+      <c r="AF87" s="50">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A88" s="72">
+      <c r="A88" s="51">
         <f t="shared" si="22"/>
         <v>84</v>
       </c>
@@ -14073,7 +15941,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H88" s="56">
+      <c r="H88" s="45">
         <v>0.43888667867061371</v>
       </c>
       <c r="I88" s="8">
@@ -14083,7 +15951,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K88" s="56">
+      <c r="K88" s="45">
         <v>0.9479503402813807</v>
       </c>
       <c r="L88" s="8">
@@ -14103,7 +15971,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q88" s="72">
+      <c r="Q88" s="51">
         <f t="shared" si="23"/>
         <v>84</v>
       </c>
@@ -14153,13 +16021,13 @@
       <c r="AE88" s="22">
         <v>1.0280539567247535</v>
       </c>
-      <c r="AF88" s="71">
+      <c r="AF88" s="50">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A89" s="72">
+      <c r="A89" s="51">
         <f t="shared" si="22"/>
         <v>85</v>
       </c>
@@ -14183,7 +16051,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H89" s="56">
+      <c r="H89" s="45">
         <v>1.3861464705343791</v>
       </c>
       <c r="I89" s="8">
@@ -14193,7 +16061,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K89" s="56">
+      <c r="K89" s="45">
         <v>0.38049217810602132</v>
       </c>
       <c r="L89" s="8">
@@ -14213,7 +16081,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q89" s="72">
+      <c r="Q89" s="51">
         <f t="shared" si="23"/>
         <v>85</v>
       </c>
@@ -14263,13 +16131,13 @@
       <c r="AE89" s="22">
         <v>0.40932257454145937</v>
       </c>
-      <c r="AF89" s="71">
+      <c r="AF89" s="50">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A90" s="72">
+      <c r="A90" s="51">
         <f t="shared" si="22"/>
         <v>86</v>
       </c>
@@ -14293,7 +16161,7 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H90" s="56">
+      <c r="H90" s="45">
         <v>4.9935282448805199E-2</v>
       </c>
       <c r="I90" s="8">
@@ -14303,7 +16171,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K90" s="56">
+      <c r="K90" s="45">
         <v>0.48165752128666028</v>
       </c>
       <c r="L90" s="8">
@@ -14323,7 +16191,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q90" s="72">
+      <c r="Q90" s="51">
         <f t="shared" si="23"/>
         <v>86</v>
       </c>
@@ -14373,13 +16241,13 @@
       <c r="AE90" s="22">
         <v>1.3645236732078003</v>
       </c>
-      <c r="AF90" s="71">
+      <c r="AF90" s="50">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A91" s="72">
+      <c r="A91" s="51">
         <f t="shared" si="22"/>
         <v>87</v>
       </c>
@@ -14403,7 +16271,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H91" s="56">
+      <c r="H91" s="45">
         <v>0.90280573747978132</v>
       </c>
       <c r="I91" s="8">
@@ -14413,7 +16281,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K91" s="56">
+      <c r="K91" s="45">
         <v>0.52580946073793744</v>
       </c>
       <c r="L91" s="8">
@@ -14433,7 +16301,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q91" s="72">
+      <c r="Q91" s="51">
         <f t="shared" si="23"/>
         <v>87</v>
       </c>
@@ -14483,13 +16351,13 @@
       <c r="AE91" s="22">
         <v>0.67026355784783465</v>
       </c>
-      <c r="AF91" s="71">
+      <c r="AF91" s="50">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A92" s="72">
+      <c r="A92" s="51">
         <f t="shared" si="22"/>
         <v>88</v>
       </c>
@@ -14513,7 +16381,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H92" s="56">
+      <c r="H92" s="45">
         <v>0.1927061677907651</v>
       </c>
       <c r="I92" s="8">
@@ -14523,7 +16391,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K92" s="56">
+      <c r="K92" s="45">
         <v>0.6977991760002441</v>
       </c>
       <c r="L92" s="8">
@@ -14543,7 +16411,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q92" s="72">
+      <c r="Q92" s="51">
         <f t="shared" si="23"/>
         <v>88</v>
       </c>
@@ -14593,13 +16461,13 @@
       <c r="AE92" s="22">
         <v>2.076479091769158</v>
       </c>
-      <c r="AF92" s="71">
+      <c r="AF92" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A93" s="72">
+      <c r="A93" s="51">
         <f t="shared" si="22"/>
         <v>89</v>
       </c>
@@ -14623,7 +16491,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H93" s="56">
+      <c r="H93" s="45">
         <v>0.54169207434308908</v>
       </c>
       <c r="I93" s="8">
@@ -14633,7 +16501,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K93" s="56">
+      <c r="K93" s="45">
         <v>0.17643512070070497</v>
       </c>
       <c r="L93" s="8">
@@ -14653,7 +16521,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q93" s="72">
+      <c r="Q93" s="51">
         <f t="shared" si="23"/>
         <v>89</v>
       </c>
@@ -14703,13 +16571,13 @@
       <c r="AE93" s="22">
         <v>0.75874007385479281</v>
       </c>
-      <c r="AF93" s="71">
+      <c r="AF93" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A94" s="72">
+      <c r="A94" s="51">
         <f t="shared" si="22"/>
         <v>90</v>
       </c>
@@ -14733,7 +16601,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H94" s="56">
+      <c r="H94" s="45">
         <v>1.324385546433912</v>
       </c>
       <c r="I94" s="8">
@@ -14743,7 +16611,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K94" s="56">
+      <c r="K94" s="45">
         <v>1.1538632465590379</v>
       </c>
       <c r="L94" s="8">
@@ -14763,7 +16631,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q94" s="72">
+      <c r="Q94" s="51">
         <f t="shared" si="23"/>
         <v>90</v>
       </c>
@@ -14813,13 +16681,13 @@
       <c r="AE94" s="22">
         <v>0.46612018189031645</v>
       </c>
-      <c r="AF94" s="71">
+      <c r="AF94" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A95" s="72">
+      <c r="A95" s="51">
         <f t="shared" si="22"/>
         <v>91</v>
       </c>
@@ -14843,7 +16711,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H95" s="56">
+      <c r="H95" s="45">
         <v>0.49443266701254307</v>
       </c>
       <c r="I95" s="8">
@@ -14853,7 +16721,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K95" s="56">
+      <c r="K95" s="45">
         <v>1.0831683523056732</v>
       </c>
       <c r="L95" s="8">
@@ -14873,7 +16741,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q95" s="72">
+      <c r="Q95" s="51">
         <f t="shared" si="23"/>
         <v>91</v>
       </c>
@@ -14923,13 +16791,13 @@
       <c r="AE95" s="22">
         <v>2.125335392315439</v>
       </c>
-      <c r="AF95" s="71">
+      <c r="AF95" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A96" s="72">
+      <c r="A96" s="51">
         <f t="shared" si="22"/>
         <v>92</v>
       </c>
@@ -14953,7 +16821,7 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H96" s="56">
+      <c r="H96" s="45">
         <v>0.74410907925656911</v>
       </c>
       <c r="I96" s="8">
@@ -14963,7 +16831,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K96" s="56">
+      <c r="K96" s="45">
         <v>1.2818305001983703E-2</v>
       </c>
       <c r="L96" s="8">
@@ -14983,7 +16851,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q96" s="72">
+      <c r="Q96" s="51">
         <f t="shared" si="23"/>
         <v>92</v>
       </c>
@@ -15033,13 +16901,13 @@
       <c r="AE96" s="22">
         <v>0.97306903897213648</v>
       </c>
-      <c r="AF96" s="71">
+      <c r="AF96" s="50">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A97" s="72">
+      <c r="A97" s="51">
         <f t="shared" si="22"/>
         <v>93</v>
       </c>
@@ -15063,7 +16931,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H97" s="56">
+      <c r="H97" s="45">
         <v>0.48066485793633834</v>
       </c>
       <c r="I97" s="8">
@@ -15073,7 +16941,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K97" s="56">
+      <c r="K97" s="45">
         <v>1.3034101382488478E-2</v>
       </c>
       <c r="L97" s="8">
@@ -15093,7 +16961,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q97" s="72">
+      <c r="Q97" s="51">
         <f t="shared" si="23"/>
         <v>93</v>
       </c>
@@ -15143,13 +17011,13 @@
       <c r="AE97" s="22">
         <v>1.3164442396313363</v>
       </c>
-      <c r="AF97" s="71">
+      <c r="AF97" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A98" s="72">
+      <c r="A98" s="51">
         <f t="shared" si="22"/>
         <v>94</v>
       </c>
@@ -15173,7 +17041,7 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H98" s="56">
+      <c r="H98" s="45">
         <v>0.84121745048371832</v>
       </c>
       <c r="I98" s="8">
@@ -15183,7 +17051,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K98" s="56">
+      <c r="K98" s="45">
         <v>0.41307743156224253</v>
       </c>
       <c r="L98" s="8">
@@ -15203,7 +17071,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q98" s="72">
+      <c r="Q98" s="51">
         <f t="shared" si="23"/>
         <v>94</v>
       </c>
@@ -15253,13 +17121,13 @@
       <c r="AE98" s="22">
         <v>9.5209363078707226E-2</v>
       </c>
-      <c r="AF98" s="71">
+      <c r="AF98" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A99" s="72">
+      <c r="A99" s="51">
         <f t="shared" si="22"/>
         <v>95</v>
       </c>
@@ -15283,7 +17151,7 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H99" s="56">
+      <c r="H99" s="45">
         <v>8.9900772118289729E-2</v>
       </c>
       <c r="I99" s="8">
@@ -15293,7 +17161,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K99" s="56">
+      <c r="K99" s="45">
         <v>0.95753169957579265</v>
       </c>
       <c r="L99" s="8">
@@ -15313,7 +17181,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q99" s="72">
+      <c r="Q99" s="51">
         <f t="shared" si="23"/>
         <v>95</v>
       </c>
@@ -15363,13 +17231,13 @@
       <c r="AE99" s="22">
         <v>0.3973242957853938</v>
       </c>
-      <c r="AF99" s="71">
+      <c r="AF99" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A100" s="72">
+      <c r="A100" s="51">
         <f t="shared" si="22"/>
         <v>96</v>
       </c>
@@ -15393,7 +17261,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H100" s="56">
+      <c r="H100" s="45">
         <v>0.69469170812097536</v>
       </c>
       <c r="I100" s="8">
@@ -15403,7 +17271,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K100" s="56">
+      <c r="K100" s="45">
         <v>0.10012952055421613</v>
       </c>
       <c r="L100" s="8">
@@ -15423,7 +17291,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q100" s="72">
+      <c r="Q100" s="51">
         <f t="shared" si="23"/>
         <v>96</v>
       </c>
@@ -15473,13 +17341,13 @@
       <c r="AE100" s="22">
         <v>0.16642216864528336</v>
       </c>
-      <c r="AF100" s="71">
+      <c r="AF100" s="50">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A101" s="72">
+      <c r="A101" s="51">
         <f t="shared" si="22"/>
         <v>97</v>
       </c>
@@ -15503,7 +17371,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H101" s="56">
+      <c r="H101" s="45">
         <v>0.85217990661336085</v>
       </c>
       <c r="I101" s="8">
@@ -15513,7 +17381,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K101" s="56">
+      <c r="K101" s="45">
         <v>1.407294515823847</v>
       </c>
       <c r="L101" s="8">
@@ -15533,7 +17401,7 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q101" s="72">
+      <c r="Q101" s="51">
         <f t="shared" si="23"/>
         <v>97</v>
       </c>
@@ -15583,13 +17451,13 @@
       <c r="AE101" s="22">
         <v>0.19050504470961638</v>
       </c>
-      <c r="AF101" s="71">
+      <c r="AF101" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A102" s="72">
+      <c r="A102" s="51">
         <f t="shared" si="22"/>
         <v>98</v>
       </c>
@@ -15613,7 +17481,7 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H102" s="56">
+      <c r="H102" s="45">
         <v>1.2693574694051941</v>
       </c>
       <c r="I102" s="8">
@@ -15623,7 +17491,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K102" s="56">
+      <c r="K102" s="45">
         <v>0.21394053163243507</v>
       </c>
       <c r="L102" s="8">
@@ -15643,7 +17511,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q102" s="72">
+      <c r="Q102" s="51">
         <f t="shared" si="23"/>
         <v>98</v>
       </c>
@@ -15693,13 +17561,13 @@
       <c r="AE102" s="22">
         <v>2.2940018433179725</v>
       </c>
-      <c r="AF102" s="71">
+      <c r="AF102" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A103" s="72">
+      <c r="A103" s="51">
         <f t="shared" si="22"/>
         <v>99</v>
       </c>
@@ -15723,7 +17591,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H103" s="56">
+      <c r="H103" s="45">
         <v>0.26797594531083102</v>
       </c>
       <c r="I103" s="8">
@@ -15733,7 +17601,7 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="K103" s="56">
+      <c r="K103" s="45">
         <v>0.93146349681081575</v>
       </c>
       <c r="L103" s="8">
@@ -15753,7 +17621,7 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="Q103" s="72">
+      <c r="Q103" s="51">
         <f t="shared" si="23"/>
         <v>99</v>
       </c>
@@ -15803,13 +17671,13 @@
       <c r="AE103" s="22">
         <v>1.6749251869258706</v>
       </c>
-      <c r="AF103" s="71">
+      <c r="AF103" s="50">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A104" s="72">
+      <c r="A104" s="51">
         <f>A103+1</f>
         <v>100</v>
       </c>
@@ -15863,7 +17731,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q104" s="72">
+      <c r="Q104" s="51">
         <f>Q103+1</f>
         <v>100</v>
       </c>
@@ -15880,7 +17748,7 @@
       <c r="U104" s="30">
         <v>0.57967223731192963</v>
       </c>
-      <c r="V104" s="59">
+      <c r="V104" s="47">
         <v>0.97030684530167544</v>
       </c>
       <c r="W104" s="2">
@@ -15890,7 +17758,7 @@
       <c r="X104" s="30">
         <v>1.4077261085848567</v>
       </c>
-      <c r="Y104" s="59">
+      <c r="Y104" s="47">
         <v>0.92145054475539412</v>
       </c>
       <c r="Z104" s="2">
@@ -15900,7 +17768,7 @@
       <c r="AA104" s="30">
         <v>0.25295651722769857</v>
       </c>
-      <c r="AB104" s="59">
+      <c r="AB104" s="47">
         <v>2.8157111728263189</v>
       </c>
       <c r="AC104" s="2">
@@ -15910,248 +17778,250 @@
       <c r="AD104" s="30">
         <v>1.1347868465224158</v>
       </c>
-      <c r="AE104" s="59">
+      <c r="AE104" s="47">
         <v>2.1291334086123235</v>
       </c>
-      <c r="AF104" s="71">
+      <c r="AF104" s="50">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:32" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="83" t="s">
+      <c r="A105" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B105" s="78"/>
-      <c r="C105" s="79">
-        <v>1</v>
-      </c>
-      <c r="D105" s="89">
+      <c r="B105" s="80"/>
+      <c r="C105" s="76">
+        <v>1</v>
+      </c>
+      <c r="D105" s="55">
         <f>SUM(D5:D104)</f>
         <v>24</v>
       </c>
-      <c r="E105" s="45">
+      <c r="E105" s="61">
         <v>2</v>
       </c>
-      <c r="F105" s="47"/>
-      <c r="G105" s="89">
+      <c r="F105" s="63"/>
+      <c r="G105" s="55">
         <f>SUM(G5:G104)</f>
         <v>27</v>
       </c>
-      <c r="H105" s="45">
+      <c r="H105" s="61">
         <v>3</v>
       </c>
-      <c r="I105" s="47"/>
-      <c r="J105" s="89">
+      <c r="I105" s="63"/>
+      <c r="J105" s="55">
         <f>SUM(J5:J104)</f>
         <v>27</v>
       </c>
-      <c r="K105" s="45">
+      <c r="K105" s="61">
         <v>4</v>
       </c>
-      <c r="L105" s="47"/>
-      <c r="M105" s="89">
+      <c r="L105" s="63"/>
+      <c r="M105" s="55">
         <f>SUM(M5:M104)</f>
         <v>26</v>
       </c>
-      <c r="N105" s="45">
+      <c r="N105" s="61">
         <v>5</v>
       </c>
-      <c r="O105" s="47"/>
-      <c r="P105" s="89">
+      <c r="O105" s="63"/>
+      <c r="P105" s="55">
         <f>SUM(P5:P104)</f>
         <v>22</v>
       </c>
-      <c r="Q105" s="83" t="s">
+      <c r="Q105" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="R105" s="78"/>
-      <c r="S105" s="79">
+      <c r="R105" s="80"/>
+      <c r="S105" s="76">
         <v>6</v>
       </c>
-      <c r="T105" s="89">
+      <c r="T105" s="55">
         <f>SUM(T5:T104)</f>
         <v>17</v>
       </c>
-      <c r="U105" s="45">
+      <c r="U105" s="61">
         <v>7</v>
       </c>
-      <c r="V105" s="47"/>
-      <c r="W105" s="89">
+      <c r="V105" s="63"/>
+      <c r="W105" s="55">
         <f>SUM(W5:W104)</f>
         <v>30</v>
       </c>
-      <c r="X105" s="45">
+      <c r="X105" s="61">
         <v>8</v>
       </c>
-      <c r="Y105" s="47"/>
-      <c r="Z105" s="89">
+      <c r="Y105" s="63"/>
+      <c r="Z105" s="55">
         <f>SUM(Z5:Z104)</f>
         <v>20</v>
       </c>
-      <c r="AA105" s="45">
+      <c r="AA105" s="61">
         <v>9</v>
       </c>
-      <c r="AB105" s="47"/>
-      <c r="AC105" s="89">
+      <c r="AB105" s="63"/>
+      <c r="AC105" s="55">
         <f>SUM(AC5:AC104)</f>
         <v>21</v>
       </c>
-      <c r="AD105" s="45">
+      <c r="AD105" s="61">
         <v>10</v>
       </c>
-      <c r="AE105" s="47"/>
-      <c r="AF105" s="92">
+      <c r="AE105" s="63"/>
+      <c r="AF105" s="58">
         <f>SUM(AF5:AF104)</f>
         <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="83" t="s">
+      <c r="A106" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B106" s="78"/>
-      <c r="C106" s="80"/>
-      <c r="D106" s="90">
+      <c r="B106" s="80"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="56">
         <f>(2^0.5) * (2^1.5) * D$105/$A$104</f>
         <v>0.96</v>
       </c>
-      <c r="E106" s="81"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="90">
+      <c r="E106" s="70"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="56">
         <f>(2^0.5) * (2^1.5) * G$105/$A$104</f>
         <v>1.08</v>
       </c>
-      <c r="H106" s="81"/>
-      <c r="I106" s="82"/>
-      <c r="J106" s="90">
+      <c r="H106" s="70"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="56">
         <f>(2^0.5) * (2^1.5) * J$105/$A$104</f>
         <v>1.08</v>
       </c>
-      <c r="K106" s="81"/>
-      <c r="L106" s="82"/>
-      <c r="M106" s="90">
+      <c r="K106" s="70"/>
+      <c r="L106" s="71"/>
+      <c r="M106" s="56">
         <f>(2^0.5) * (2^1.5) * M$105/$A$104</f>
         <v>1.04</v>
       </c>
-      <c r="N106" s="81"/>
-      <c r="O106" s="82"/>
-      <c r="P106" s="90">
+      <c r="N106" s="70"/>
+      <c r="O106" s="71"/>
+      <c r="P106" s="56">
         <f>(2^0.5) * (2^1.5) * P$105/$A$104</f>
         <v>0.88</v>
       </c>
-      <c r="Q106" s="83" t="s">
+      <c r="Q106" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="R106" s="78"/>
-      <c r="S106" s="80"/>
-      <c r="T106" s="90">
+      <c r="R106" s="80"/>
+      <c r="S106" s="77"/>
+      <c r="T106" s="56">
         <f>(2^0.5) * (2^1.5) * T$105/$Q$104</f>
         <v>0.68</v>
       </c>
-      <c r="U106" s="81"/>
-      <c r="V106" s="82"/>
-      <c r="W106" s="90">
+      <c r="U106" s="70"/>
+      <c r="V106" s="71"/>
+      <c r="W106" s="56">
         <f>(2^0.5) * (2^1.5) * W$105/$Q$104</f>
         <v>1.2</v>
       </c>
-      <c r="X106" s="81"/>
-      <c r="Y106" s="82"/>
-      <c r="Z106" s="90">
+      <c r="X106" s="70"/>
+      <c r="Y106" s="71"/>
+      <c r="Z106" s="56">
         <f>(2^0.5) * (2^1.5) * Z$105/$Q$104</f>
         <v>0.8</v>
       </c>
-      <c r="AA106" s="81"/>
-      <c r="AB106" s="82"/>
-      <c r="AC106" s="90">
+      <c r="AA106" s="70"/>
+      <c r="AB106" s="71"/>
+      <c r="AC106" s="56">
         <f>(2^0.5) * (2^1.5) * AC$105/$Q$104</f>
         <v>0.84</v>
       </c>
-      <c r="AD106" s="81"/>
-      <c r="AE106" s="82"/>
-      <c r="AF106" s="93">
+      <c r="AD106" s="70"/>
+      <c r="AE106" s="71"/>
+      <c r="AF106" s="59">
         <f>(2^0.5) * (2^1.5) * AF$105/$Q$104</f>
         <v>0.88</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="84" t="s">
+      <c r="A107" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B107" s="85"/>
-      <c r="C107" s="86"/>
-      <c r="D107" s="91">
+      <c r="B107" s="75"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="57">
         <f>AVERAGE(D106)</f>
         <v>0.96</v>
       </c>
-      <c r="E107" s="87"/>
-      <c r="F107" s="88"/>
-      <c r="G107" s="91">
+      <c r="E107" s="72"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="57">
         <f>AVERAGE(G106,D106)</f>
         <v>1.02</v>
       </c>
-      <c r="H107" s="87"/>
-      <c r="I107" s="88"/>
-      <c r="J107" s="91">
+      <c r="H107" s="72"/>
+      <c r="I107" s="73"/>
+      <c r="J107" s="57">
         <f>AVERAGE(J106,G106,D106)</f>
         <v>1.04</v>
       </c>
-      <c r="K107" s="87"/>
-      <c r="L107" s="88"/>
-      <c r="M107" s="91">
+      <c r="K107" s="72"/>
+      <c r="L107" s="73"/>
+      <c r="M107" s="57">
         <f>AVERAGE(M106,J106,G106,D106)</f>
         <v>1.04</v>
       </c>
-      <c r="N107" s="87"/>
-      <c r="O107" s="88"/>
-      <c r="P107" s="91">
+      <c r="N107" s="72"/>
+      <c r="O107" s="73"/>
+      <c r="P107" s="57">
         <f>AVERAGE(P106,M106,J106,G106,D106)</f>
         <v>1.008</v>
       </c>
-      <c r="Q107" s="84" t="s">
+      <c r="Q107" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="R107" s="85"/>
-      <c r="S107" s="86"/>
-      <c r="T107" s="91">
+      <c r="R107" s="75"/>
+      <c r="S107" s="78"/>
+      <c r="T107" s="57">
         <f>AVERAGE(T106,P106,M106,J106,G106,D106)</f>
         <v>0.95333333333333325</v>
       </c>
-      <c r="U107" s="87"/>
-      <c r="V107" s="88"/>
-      <c r="W107" s="91">
+      <c r="U107" s="72"/>
+      <c r="V107" s="73"/>
+      <c r="W107" s="57">
         <f>AVERAGE(W106,T106,P106,M106,J106,G106,D106)</f>
         <v>0.98857142857142855</v>
       </c>
-      <c r="X107" s="87"/>
-      <c r="Y107" s="88"/>
-      <c r="Z107" s="91">
+      <c r="X107" s="72"/>
+      <c r="Y107" s="73"/>
+      <c r="Z107" s="57">
         <f>AVERAGE(Z106,W106,T106,P106,M106,J106,G106,D106)</f>
         <v>0.96499999999999997</v>
       </c>
-      <c r="AA107" s="87"/>
-      <c r="AB107" s="88"/>
-      <c r="AC107" s="91">
+      <c r="AA107" s="72"/>
+      <c r="AB107" s="73"/>
+      <c r="AC107" s="57">
         <f>AVERAGE(AC106,Z106,W106,T106,P106,M106,J106,G106,D106)</f>
         <v>0.95111111111111113</v>
       </c>
-      <c r="AD107" s="87"/>
-      <c r="AE107" s="88"/>
-      <c r="AF107" s="94">
+      <c r="AD107" s="72"/>
+      <c r="AE107" s="73"/>
+      <c r="AF107" s="60">
         <f>AVERAGE(AF106,AC106,Z106,W106,T106,P106,M106,J106,G106,D106)</f>
         <v>0.94400000000000017</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AA105:AB107"/>
-    <mergeCell ref="AD105:AE107"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="Q105:R105"/>
-    <mergeCell ref="Q106:R106"/>
-    <mergeCell ref="Q107:R107"/>
-    <mergeCell ref="S105:S107"/>
+    <mergeCell ref="Q1:AF1"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="R2:AB2"/>
     <mergeCell ref="E105:F107"/>
@@ -16168,16 +18038,14 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="Q1:AF1"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="AA105:AB107"/>
+    <mergeCell ref="AD105:AE107"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="Q107:R107"/>
+    <mergeCell ref="S105:S107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/MTUCI/math-stas-prob/Бергман_Комаров_Черевко ДЗ.xlsx
+++ b/MTUCI/math-stas-prob/Бергман_Комаров_Черевко ДЗ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkBench\EduCourses\MTUCI\math-stas-prob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CF7617-B458-4AAB-B7DA-0194F0A85103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222FEA21-CD50-4AD3-8C72-8B723C43653B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{860E577D-1796-4E3C-8407-155EF3E87354}"/>
+    <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{860E577D-1796-4E3C-8407-155EF3E87354}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание-2" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>Значения</t>
   </si>
@@ -565,6 +565,15 @@
   <si>
     <t>y - y*</t>
   </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>Пересечение функций</t>
+  </si>
 </sst>
 </file>
 
@@ -696,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1274,11 +1283,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1412,108 +1478,6 @@
     <xf numFmtId="2" fontId="0" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1551,6 +1515,131 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2831,7 +2920,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" b="1" baseline="0"/>
-              <a:t> значение площади и её среднего от выборки</a:t>
+              <a:t> значения площади и её среднего от выборки</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -3335,6 +3424,678 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1"/>
+              <a:t>График</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1" baseline="0"/>
+              <a:t> пересечения функций </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t>y1 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1" baseline="0"/>
+              <a:t>и </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t>y2 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" b="1" baseline="0"/>
+              <a:t>на интервале </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t>[0;3]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12383982446516731"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4680204448128191E-2"/>
+          <c:y val="0.14149735595322063"/>
+          <c:w val="0.87181102362204721"/>
+          <c:h val="0.60183725504567753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>y1 = x^3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Задание-4'!$R$111:$R$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задание-4'!$S$111:$S$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000019E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21600000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7439999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0959999999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8319999999999981</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.647999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.824</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.576000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.952000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.000000000000014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB19-4514-ABF5-ED1112F8CEA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>y2 = 2*x</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задание-4'!$T$111:$T$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.0000000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CB19-4514-ABF5-ED1112F8CEA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="47497839"/>
+        <c:axId val="47488511"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="47497839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>X</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47488511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47488511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47497839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3416,6 +4177,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4969,6 +5770,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5086,6 +6390,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>65088</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674B84CB-DFC3-45F5-BF94-FF3BA80D5E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5393,392 +6735,392 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186FB584-81E3-4CFD-A0E6-AE69B7CBB3A1}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="F2" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="H2" s="73" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="95">
-        <v>0</v>
-      </c>
-      <c r="B3" s="99">
-        <v>0</v>
-      </c>
-      <c r="C3" s="99">
+      <c r="A3" s="61">
+        <v>0</v>
+      </c>
+      <c r="B3" s="65">
+        <v>0</v>
+      </c>
+      <c r="C3" s="65">
         <v>1.67</v>
       </c>
-      <c r="D3" s="99">
+      <c r="D3" s="65">
         <f>B3^2</f>
         <v>0</v>
       </c>
-      <c r="E3" s="99">
+      <c r="E3" s="65">
         <f>B3^4</f>
         <v>0</v>
       </c>
-      <c r="F3" s="99">
+      <c r="F3" s="65">
         <f>D3*C3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="99">
+      <c r="G3" s="65">
         <f>D3*(-0.19) + 0.76</f>
         <v>0.76</v>
       </c>
-      <c r="H3" s="100">
+      <c r="H3" s="66">
         <f>(G3-C3)^2</f>
         <v>0.82809999999999984</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="96">
+      <c r="A4" s="62">
         <f>A3+1</f>
         <v>1</v>
       </c>
-      <c r="B4" s="99">
+      <c r="B4" s="65">
         <v>0.5</v>
       </c>
-      <c r="C4" s="99">
+      <c r="C4" s="65">
         <v>1.32</v>
       </c>
-      <c r="D4" s="99">
+      <c r="D4" s="65">
         <f t="shared" ref="D4:D12" si="0">B4^2</f>
         <v>0.25</v>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="65">
         <f t="shared" ref="E4:E12" si="1">B4^4</f>
         <v>6.25E-2</v>
       </c>
-      <c r="F4" s="99">
+      <c r="F4" s="65">
         <f t="shared" ref="F4:F12" si="2">D4*C4</f>
         <v>0.33</v>
       </c>
-      <c r="G4" s="99">
+      <c r="G4" s="65">
         <f t="shared" ref="G4:G12" si="3">D4*(-0.19) + 0.76</f>
         <v>0.71250000000000002</v>
       </c>
-      <c r="H4" s="100">
+      <c r="H4" s="66">
         <f t="shared" ref="H4:H12" si="4">(G4-C4)^2</f>
         <v>0.36905625000000003</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="96">
+      <c r="A5" s="62">
         <f t="shared" ref="A5:A9" si="5">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="99">
-        <v>1</v>
-      </c>
-      <c r="C5" s="99">
+      <c r="B5" s="65">
+        <v>1</v>
+      </c>
+      <c r="C5" s="65">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5" s="99">
+      <c r="D5" s="65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F5" s="99">
+      <c r="F5" s="65">
         <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="G5" s="99">
+      <c r="G5" s="65">
         <f t="shared" si="3"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="H5" s="100">
+      <c r="H5" s="66">
         <f t="shared" si="4"/>
         <v>0.28090000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="96">
+      <c r="A6" s="62">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="B6" s="101">
+      <c r="B6" s="67">
         <v>1.5</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="67">
         <v>0.81</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="65">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="E6" s="99">
+      <c r="E6" s="65">
         <f t="shared" si="1"/>
         <v>5.0625</v>
       </c>
-      <c r="F6" s="99">
+      <c r="F6" s="65">
         <f t="shared" si="2"/>
         <v>1.8225000000000002</v>
       </c>
-      <c r="G6" s="99">
+      <c r="G6" s="65">
         <f t="shared" si="3"/>
         <v>0.33250000000000002</v>
       </c>
-      <c r="H6" s="100">
+      <c r="H6" s="66">
         <f t="shared" si="4"/>
         <v>0.22800625000000002</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="96">
+      <c r="A7" s="62">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B7" s="101">
+      <c r="B7" s="67">
         <v>2</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="67">
         <v>0.5</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="65">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="65">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="F7" s="99">
+      <c r="F7" s="65">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="100">
+      <c r="H7" s="66">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="96">
+      <c r="A8" s="62">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B8" s="101">
+      <c r="B8" s="67">
         <v>2.5</v>
       </c>
-      <c r="C8" s="101">
+      <c r="C8" s="67">
         <v>0.18</v>
       </c>
-      <c r="D8" s="99">
+      <c r="D8" s="65">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="65">
         <f t="shared" si="1"/>
         <v>39.0625</v>
       </c>
-      <c r="F8" s="99">
+      <c r="F8" s="65">
         <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
-      <c r="G8" s="99">
+      <c r="G8" s="65">
         <f t="shared" si="3"/>
         <v>-0.42749999999999999</v>
       </c>
-      <c r="H8" s="100">
+      <c r="H8" s="66">
         <f t="shared" si="4"/>
         <v>0.36905624999999992</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="96">
+      <c r="A9" s="62">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B9" s="101">
+      <c r="B9" s="67">
         <v>3</v>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="67">
         <v>-0.1</v>
       </c>
-      <c r="D9" s="99">
+      <c r="D9" s="65">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="65">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="F9" s="99">
+      <c r="F9" s="65">
         <f t="shared" si="2"/>
         <v>-0.9</v>
       </c>
-      <c r="G9" s="99">
+      <c r="G9" s="65">
         <f t="shared" si="3"/>
         <v>-0.95</v>
       </c>
-      <c r="H9" s="100">
+      <c r="H9" s="66">
         <f t="shared" si="4"/>
         <v>0.72249999999999992</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="96">
+      <c r="A10" s="62">
         <f>A9+1</f>
         <v>7</v>
       </c>
-      <c r="B10" s="101">
+      <c r="B10" s="67">
         <v>3.5</v>
       </c>
-      <c r="C10" s="101">
+      <c r="C10" s="67">
         <v>-0.45</v>
       </c>
-      <c r="D10" s="99">
+      <c r="D10" s="65">
         <f t="shared" si="0"/>
         <v>12.25</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="65">
         <f t="shared" si="1"/>
         <v>150.0625</v>
       </c>
-      <c r="F10" s="99">
+      <c r="F10" s="65">
         <f t="shared" si="2"/>
         <v>-5.5125000000000002</v>
       </c>
-      <c r="G10" s="99">
+      <c r="G10" s="65">
         <f t="shared" si="3"/>
         <v>-1.5675000000000001</v>
       </c>
-      <c r="H10" s="100">
+      <c r="H10" s="66">
         <f t="shared" si="4"/>
         <v>1.2488062500000003</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="96">
+      <c r="A11" s="62">
         <f>A10+1</f>
         <v>8</v>
       </c>
-      <c r="B11" s="101">
+      <c r="B11" s="67">
         <v>4</v>
       </c>
-      <c r="C11" s="101">
+      <c r="C11" s="67">
         <v>-9.8000000000000007</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="65">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="65">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="F11" s="99">
+      <c r="F11" s="65">
         <f t="shared" si="2"/>
         <v>-156.80000000000001</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="65">
         <f t="shared" si="3"/>
         <v>-2.2800000000000002</v>
       </c>
-      <c r="H11" s="100">
+      <c r="H11" s="66">
         <f t="shared" si="4"/>
         <v>56.55040000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="96">
+      <c r="A12" s="62">
         <f t="shared" ref="A12" si="6">A11+1</f>
         <v>9</v>
       </c>
-      <c r="B12" s="101">
+      <c r="B12" s="67">
         <v>4.5</v>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="67">
         <v>-1.2</v>
       </c>
-      <c r="D12" s="99">
+      <c r="D12" s="65">
         <f t="shared" si="0"/>
         <v>20.25</v>
       </c>
-      <c r="E12" s="99">
+      <c r="E12" s="65">
         <f t="shared" si="1"/>
         <v>410.0625</v>
       </c>
-      <c r="F12" s="99">
+      <c r="F12" s="65">
         <f t="shared" si="2"/>
         <v>-24.3</v>
       </c>
-      <c r="G12" s="99">
+      <c r="G12" s="65">
         <f t="shared" si="3"/>
         <v>-3.0875000000000004</v>
       </c>
-      <c r="H12" s="100">
+      <c r="H12" s="66">
         <f t="shared" si="4"/>
         <v>3.5626562500000016</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68">
         <f t="shared" ref="C13:H13" si="7">SUM(C3:C12)</f>
         <v>-5.9700000000000006</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="68">
         <f t="shared" si="7"/>
         <v>71.25</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E13" s="68">
         <f t="shared" si="7"/>
         <v>958.3125</v>
       </c>
-      <c r="F13" s="102">
+      <c r="F13" s="68">
         <f t="shared" si="7"/>
         <v>-181.13500000000002</v>
       </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="103">
+      <c r="G13" s="64"/>
+      <c r="H13" s="69">
         <f t="shared" si="7"/>
         <v>64.409481250000013</v>
       </c>
@@ -5811,13 +7153,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -5851,7 +7193,7 @@
         <f>$B$22*C3</f>
         <v>8.6692153451752782E-3</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="84">
         <f>SUM(D3:D7)</f>
         <v>3.3788175793196444</v>
       </c>
@@ -5871,7 +7213,7 @@
         <f t="shared" ref="D4:D21" si="1">$B$22*C4</f>
         <v>7.5075404889217906E-2</v>
       </c>
-      <c r="E4" s="69"/>
+      <c r="E4" s="86"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
@@ -5888,7 +7230,7 @@
         <f t="shared" si="1"/>
         <v>0.32507650317031361</v>
       </c>
-      <c r="E5" s="69"/>
+      <c r="E5" s="86"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
@@ -5905,7 +7247,7 @@
         <f t="shared" si="1"/>
         <v>0.93838750581830555</v>
       </c>
-      <c r="E6" s="69"/>
+      <c r="E6" s="86"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -5922,7 +7264,7 @@
         <f t="shared" si="1"/>
         <v>2.0316089500966319</v>
       </c>
-      <c r="E7" s="68"/>
+      <c r="E7" s="85"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -6091,7 +7433,7 @@
         <f t="shared" si="1"/>
         <v>2.1450235809537683</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="84">
         <f>SUM(D16:D17)</f>
         <v>3.4718738817437398</v>
       </c>
@@ -6111,7 +7453,7 @@
         <f t="shared" si="1"/>
         <v>1.3268503007899717</v>
       </c>
-      <c r="E17" s="68"/>
+      <c r="E17" s="85"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -6128,7 +7470,7 @@
         <f t="shared" si="1"/>
         <v>0.7660349069894109</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="83">
         <f>SUM(D18:D21)</f>
         <v>1.493477472286032</v>
       </c>
@@ -6148,7 +7490,7 @@
         <f t="shared" si="1"/>
         <v>0.41461639340801887</v>
       </c>
-      <c r="E19" s="66"/>
+      <c r="E19" s="83"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -6165,7 +7507,7 @@
         <f t="shared" si="1"/>
         <v>0.21121046864196708</v>
       </c>
-      <c r="E20" s="66"/>
+      <c r="E20" s="83"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
@@ -6182,7 +7524,7 @@
         <f t="shared" si="1"/>
         <v>0.10161570324663523</v>
       </c>
-      <c r="E21" s="66"/>
+      <c r="E21" s="83"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
@@ -6221,31 +7563,31 @@
       <c r="A24" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -6517,10 +7859,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8500AE4B-0859-4400-A0F7-ED5BAB6C4DC9}">
-  <dimension ref="A1:AF107"/>
+  <dimension ref="A1:AF126"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="R126" sqref="R126"/>
+    <sheetView tabSelected="1" topLeftCell="G100" workbookViewId="0">
+      <selection activeCell="T131" sqref="T131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6541,7 +7883,7 @@
     <col min="17" max="17" width="10.36328125" customWidth="1"/>
     <col min="18" max="18" width="6.81640625" customWidth="1"/>
     <col min="19" max="19" width="6.453125" customWidth="1"/>
-    <col min="20" max="20" width="6.90625" customWidth="1"/>
+    <col min="20" max="20" width="7.36328125" customWidth="1"/>
     <col min="21" max="21" width="6.54296875" customWidth="1"/>
     <col min="22" max="22" width="6.453125" customWidth="1"/>
     <col min="23" max="23" width="7.1796875" customWidth="1"/>
@@ -6557,145 +7899,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="89" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="92"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="90"/>
     </row>
     <row r="2" spans="1:32" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="81" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="86" t="s">
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="81" t="s">
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="83"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="99"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="86"/>
-      <c r="B3" s="65">
-        <v>1</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65">
+      <c r="A3" s="94"/>
+      <c r="B3" s="82">
+        <v>1</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82">
         <v>2</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65">
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82">
         <v>3</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65">
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82">
         <v>4</v>
       </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87">
+      <c r="L3" s="82"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95">
         <v>5</v>
       </c>
-      <c r="O3" s="87"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="65">
+      <c r="O3" s="95"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="82">
         <v>6</v>
       </c>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65">
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82">
         <v>7</v>
       </c>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65">
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82">
         <v>8</v>
       </c>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65">
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82">
         <v>9</v>
       </c>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87">
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="95">
         <v>10</v>
       </c>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="88"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="106"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="86"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
@@ -6741,7 +8083,7 @@
       <c r="P4" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="86"/>
+      <c r="Q4" s="94"/>
       <c r="R4" s="11" t="s">
         <v>24</v>
       </c>
@@ -17787,231 +19129,492 @@
       </c>
     </row>
     <row r="105" spans="1:32" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="79" t="s">
+      <c r="A105" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B105" s="80"/>
-      <c r="C105" s="76">
+      <c r="B105" s="93"/>
+      <c r="C105" s="109">
         <v>1</v>
       </c>
       <c r="D105" s="55">
         <f>SUM(D5:D104)</f>
         <v>24</v>
       </c>
-      <c r="E105" s="61">
+      <c r="E105" s="78">
         <v>2</v>
       </c>
-      <c r="F105" s="63"/>
+      <c r="F105" s="80"/>
       <c r="G105" s="55">
         <f>SUM(G5:G104)</f>
         <v>27</v>
       </c>
-      <c r="H105" s="61">
+      <c r="H105" s="78">
         <v>3</v>
       </c>
-      <c r="I105" s="63"/>
+      <c r="I105" s="80"/>
       <c r="J105" s="55">
         <f>SUM(J5:J104)</f>
         <v>27</v>
       </c>
-      <c r="K105" s="61">
+      <c r="K105" s="78">
         <v>4</v>
       </c>
-      <c r="L105" s="63"/>
+      <c r="L105" s="80"/>
       <c r="M105" s="55">
         <f>SUM(M5:M104)</f>
         <v>26</v>
       </c>
-      <c r="N105" s="61">
+      <c r="N105" s="78">
         <v>5</v>
       </c>
-      <c r="O105" s="63"/>
+      <c r="O105" s="80"/>
       <c r="P105" s="55">
         <f>SUM(P5:P104)</f>
         <v>22</v>
       </c>
-      <c r="Q105" s="79" t="s">
+      <c r="Q105" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="R105" s="80"/>
-      <c r="S105" s="76">
+      <c r="R105" s="93"/>
+      <c r="S105" s="109">
         <v>6</v>
       </c>
       <c r="T105" s="55">
         <f>SUM(T5:T104)</f>
         <v>17</v>
       </c>
-      <c r="U105" s="61">
+      <c r="U105" s="78">
         <v>7</v>
       </c>
-      <c r="V105" s="63"/>
+      <c r="V105" s="80"/>
       <c r="W105" s="55">
         <f>SUM(W5:W104)</f>
         <v>30</v>
       </c>
-      <c r="X105" s="61">
+      <c r="X105" s="78">
         <v>8</v>
       </c>
-      <c r="Y105" s="63"/>
+      <c r="Y105" s="80"/>
       <c r="Z105" s="55">
         <f>SUM(Z5:Z104)</f>
         <v>20</v>
       </c>
-      <c r="AA105" s="61">
+      <c r="AA105" s="78">
         <v>9</v>
       </c>
-      <c r="AB105" s="63"/>
+      <c r="AB105" s="80"/>
       <c r="AC105" s="55">
         <f>SUM(AC5:AC104)</f>
         <v>21</v>
       </c>
-      <c r="AD105" s="61">
+      <c r="AD105" s="78">
         <v>10</v>
       </c>
-      <c r="AE105" s="63"/>
+      <c r="AE105" s="80"/>
       <c r="AF105" s="58">
         <f>SUM(AF5:AF104)</f>
         <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="79" t="s">
+      <c r="A106" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B106" s="80"/>
-      <c r="C106" s="77"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="110"/>
       <c r="D106" s="56">
         <f>(2^0.5) * (2^1.5) * D$105/$A$104</f>
         <v>0.96</v>
       </c>
-      <c r="E106" s="70"/>
-      <c r="F106" s="71"/>
+      <c r="E106" s="101"/>
+      <c r="F106" s="102"/>
       <c r="G106" s="56">
         <f>(2^0.5) * (2^1.5) * G$105/$A$104</f>
         <v>1.08</v>
       </c>
-      <c r="H106" s="70"/>
-      <c r="I106" s="71"/>
+      <c r="H106" s="101"/>
+      <c r="I106" s="102"/>
       <c r="J106" s="56">
         <f>(2^0.5) * (2^1.5) * J$105/$A$104</f>
         <v>1.08</v>
       </c>
-      <c r="K106" s="70"/>
-      <c r="L106" s="71"/>
+      <c r="K106" s="101"/>
+      <c r="L106" s="102"/>
       <c r="M106" s="56">
         <f>(2^0.5) * (2^1.5) * M$105/$A$104</f>
         <v>1.04</v>
       </c>
-      <c r="N106" s="70"/>
-      <c r="O106" s="71"/>
+      <c r="N106" s="101"/>
+      <c r="O106" s="102"/>
       <c r="P106" s="56">
         <f>(2^0.5) * (2^1.5) * P$105/$A$104</f>
         <v>0.88</v>
       </c>
-      <c r="Q106" s="79" t="s">
+      <c r="Q106" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="R106" s="80"/>
-      <c r="S106" s="77"/>
+      <c r="R106" s="93"/>
+      <c r="S106" s="110"/>
       <c r="T106" s="56">
         <f>(2^0.5) * (2^1.5) * T$105/$Q$104</f>
         <v>0.68</v>
       </c>
-      <c r="U106" s="70"/>
-      <c r="V106" s="71"/>
+      <c r="U106" s="101"/>
+      <c r="V106" s="102"/>
       <c r="W106" s="56">
         <f>(2^0.5) * (2^1.5) * W$105/$Q$104</f>
         <v>1.2</v>
       </c>
-      <c r="X106" s="70"/>
-      <c r="Y106" s="71"/>
+      <c r="X106" s="101"/>
+      <c r="Y106" s="102"/>
       <c r="Z106" s="56">
         <f>(2^0.5) * (2^1.5) * Z$105/$Q$104</f>
         <v>0.8</v>
       </c>
-      <c r="AA106" s="70"/>
-      <c r="AB106" s="71"/>
+      <c r="AA106" s="101"/>
+      <c r="AB106" s="102"/>
       <c r="AC106" s="56">
         <f>(2^0.5) * (2^1.5) * AC$105/$Q$104</f>
         <v>0.84</v>
       </c>
-      <c r="AD106" s="70"/>
-      <c r="AE106" s="71"/>
+      <c r="AD106" s="101"/>
+      <c r="AE106" s="102"/>
       <c r="AF106" s="59">
         <f>(2^0.5) * (2^1.5) * AF$105/$Q$104</f>
         <v>0.88</v>
       </c>
     </row>
     <row r="107" spans="1:32" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="74" t="s">
+      <c r="A107" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B107" s="75"/>
-      <c r="C107" s="78"/>
+      <c r="B107" s="108"/>
+      <c r="C107" s="111"/>
       <c r="D107" s="57">
         <f>AVERAGE(D106)</f>
         <v>0.96</v>
       </c>
-      <c r="E107" s="72"/>
-      <c r="F107" s="73"/>
+      <c r="E107" s="103"/>
+      <c r="F107" s="104"/>
       <c r="G107" s="57">
         <f>AVERAGE(G106,D106)</f>
         <v>1.02</v>
       </c>
-      <c r="H107" s="72"/>
-      <c r="I107" s="73"/>
+      <c r="H107" s="103"/>
+      <c r="I107" s="104"/>
       <c r="J107" s="57">
         <f>AVERAGE(J106,G106,D106)</f>
         <v>1.04</v>
       </c>
-      <c r="K107" s="72"/>
-      <c r="L107" s="73"/>
+      <c r="K107" s="103"/>
+      <c r="L107" s="104"/>
       <c r="M107" s="57">
         <f>AVERAGE(M106,J106,G106,D106)</f>
         <v>1.04</v>
       </c>
-      <c r="N107" s="72"/>
-      <c r="O107" s="73"/>
+      <c r="N107" s="103"/>
+      <c r="O107" s="104"/>
       <c r="P107" s="57">
         <f>AVERAGE(P106,M106,J106,G106,D106)</f>
         <v>1.008</v>
       </c>
-      <c r="Q107" s="74" t="s">
+      <c r="Q107" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="R107" s="75"/>
-      <c r="S107" s="78"/>
+      <c r="R107" s="108"/>
+      <c r="S107" s="111"/>
       <c r="T107" s="57">
         <f>AVERAGE(T106,P106,M106,J106,G106,D106)</f>
         <v>0.95333333333333325</v>
       </c>
-      <c r="U107" s="72"/>
-      <c r="V107" s="73"/>
+      <c r="U107" s="103"/>
+      <c r="V107" s="104"/>
       <c r="W107" s="57">
         <f>AVERAGE(W106,T106,P106,M106,J106,G106,D106)</f>
         <v>0.98857142857142855</v>
       </c>
-      <c r="X107" s="72"/>
-      <c r="Y107" s="73"/>
+      <c r="X107" s="103"/>
+      <c r="Y107" s="104"/>
       <c r="Z107" s="57">
         <f>AVERAGE(Z106,W106,T106,P106,M106,J106,G106,D106)</f>
         <v>0.96499999999999997</v>
       </c>
-      <c r="AA107" s="72"/>
-      <c r="AB107" s="73"/>
+      <c r="AA107" s="103"/>
+      <c r="AB107" s="104"/>
       <c r="AC107" s="57">
         <f>AVERAGE(AC106,Z106,W106,T106,P106,M106,J106,G106,D106)</f>
         <v>0.95111111111111113</v>
       </c>
-      <c r="AD107" s="72"/>
-      <c r="AE107" s="73"/>
+      <c r="AD107" s="103"/>
+      <c r="AE107" s="104"/>
       <c r="AF107" s="60">
         <f>AVERAGE(AF106,AC106,Z106,W106,T106,P106,M106,J106,G106,D106)</f>
         <v>0.94400000000000017</v>
       </c>
     </row>
+    <row r="108" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="R109" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="S109" s="121"/>
+      <c r="T109" s="122"/>
+    </row>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="R110" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="S110" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="T110" s="119" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="R111" s="112">
+        <v>0</v>
+      </c>
+      <c r="S111" s="115">
+        <f>R111^3</f>
+        <v>0</v>
+      </c>
+      <c r="T111" s="50">
+        <f>2*R111</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="R112" s="112">
+        <f>R111+0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="S112" s="3">
+        <f t="shared" ref="S112:S126" si="24">R112^3</f>
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="T112" s="50">
+        <f t="shared" ref="T112:T126" si="25">2*R112</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="113" spans="18:20" x14ac:dyDescent="0.35">
+      <c r="R113" s="112">
+        <f t="shared" ref="R113:R125" si="26">R112+0.2</f>
+        <v>0.4</v>
+      </c>
+      <c r="S113" s="3">
+        <f t="shared" si="24"/>
+        <v>6.4000000000000015E-2</v>
+      </c>
+      <c r="T113" s="50">
+        <f t="shared" si="25"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="114" spans="18:20" x14ac:dyDescent="0.35">
+      <c r="R114" s="112">
+        <f t="shared" si="26"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="S114" s="3">
+        <f t="shared" si="24"/>
+        <v>0.21600000000000008</v>
+      </c>
+      <c r="T114" s="50">
+        <f t="shared" si="25"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="18:20" x14ac:dyDescent="0.35">
+      <c r="R115" s="112">
+        <f t="shared" si="26"/>
+        <v>0.8</v>
+      </c>
+      <c r="S115" s="3">
+        <f t="shared" si="24"/>
+        <v>0.51200000000000012</v>
+      </c>
+      <c r="T115" s="50">
+        <f t="shared" si="25"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="116" spans="18:20" x14ac:dyDescent="0.35">
+      <c r="R116" s="112">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="S116" s="3">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="T116" s="50">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="18:20" x14ac:dyDescent="0.35">
+      <c r="R117" s="112">
+        <f t="shared" si="26"/>
+        <v>1.2</v>
+      </c>
+      <c r="S117" s="3">
+        <f t="shared" si="24"/>
+        <v>1.728</v>
+      </c>
+      <c r="T117" s="50">
+        <f t="shared" si="25"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="118" spans="18:20" x14ac:dyDescent="0.35">
+      <c r="R118" s="112">
+        <f t="shared" si="26"/>
+        <v>1.4</v>
+      </c>
+      <c r="S118" s="3">
+        <f t="shared" si="24"/>
+        <v>2.7439999999999993</v>
+      </c>
+      <c r="T118" s="50">
+        <f t="shared" si="25"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="119" spans="18:20" x14ac:dyDescent="0.35">
+      <c r="R119" s="112">
+        <f t="shared" si="26"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="S119" s="3">
+        <f t="shared" si="24"/>
+        <v>4.0959999999999992</v>
+      </c>
+      <c r="T119" s="50">
+        <f t="shared" si="25"/>
+        <v>3.1999999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="18:20" x14ac:dyDescent="0.35">
+      <c r="R120" s="112">
+        <f t="shared" si="26"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="S120" s="3">
+        <f t="shared" si="24"/>
+        <v>5.8319999999999981</v>
+      </c>
+      <c r="T120" s="50">
+        <f t="shared" si="25"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="18:20" x14ac:dyDescent="0.35">
+      <c r="R121" s="112">
+        <f t="shared" si="26"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="S121" s="3">
+        <f t="shared" si="24"/>
+        <v>7.9999999999999973</v>
+      </c>
+      <c r="T121" s="50">
+        <f t="shared" si="25"/>
+        <v>3.9999999999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="18:20" x14ac:dyDescent="0.35">
+      <c r="R122" s="112">
+        <f t="shared" si="26"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="S122" s="3">
+        <f t="shared" si="24"/>
+        <v>10.647999999999996</v>
+      </c>
+      <c r="T122" s="50">
+        <f t="shared" si="25"/>
+        <v>4.3999999999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="18:20" x14ac:dyDescent="0.35">
+      <c r="R123" s="112">
+        <f t="shared" si="26"/>
+        <v>2.4</v>
+      </c>
+      <c r="S123" s="3">
+        <f t="shared" si="24"/>
+        <v>13.824</v>
+      </c>
+      <c r="T123" s="50">
+        <f t="shared" si="25"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="124" spans="18:20" x14ac:dyDescent="0.35">
+      <c r="R124" s="112">
+        <f t="shared" si="26"/>
+        <v>2.6</v>
+      </c>
+      <c r="S124" s="3">
+        <f t="shared" si="24"/>
+        <v>17.576000000000004</v>
+      </c>
+      <c r="T124" s="50">
+        <f t="shared" si="25"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="125" spans="18:20" x14ac:dyDescent="0.35">
+      <c r="R125" s="112">
+        <f t="shared" si="26"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="S125" s="3">
+        <f t="shared" si="24"/>
+        <v>21.952000000000005</v>
+      </c>
+      <c r="T125" s="50">
+        <f t="shared" si="25"/>
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="126" spans="18:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R126" s="113">
+        <f>R125+0.2</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="S126" s="116">
+        <f t="shared" si="24"/>
+        <v>27.000000000000014</v>
+      </c>
+      <c r="T126" s="114">
+        <f t="shared" si="25"/>
+        <v>6.0000000000000009</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
+    <mergeCell ref="R109:T109"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AA105:AB107"/>
+    <mergeCell ref="AD105:AE107"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="Q107:R107"/>
+    <mergeCell ref="S105:S107"/>
+    <mergeCell ref="U105:V107"/>
+    <mergeCell ref="X105:Y107"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="Q1:AF1"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A105:B105"/>
@@ -18028,24 +19631,6 @@
     <mergeCell ref="H105:I107"/>
     <mergeCell ref="K105:L107"/>
     <mergeCell ref="N105:O107"/>
-    <mergeCell ref="U105:V107"/>
-    <mergeCell ref="X105:Y107"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AA105:AB107"/>
-    <mergeCell ref="AD105:AE107"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="Q105:R105"/>
-    <mergeCell ref="Q106:R106"/>
-    <mergeCell ref="Q107:R107"/>
-    <mergeCell ref="S105:S107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
